--- a/machine_learning_concepts.xlsx
+++ b/machine_learning_concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy Lauguico\Documents\01-learn-in-public\product\r-linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E889B42-58CA-4E9C-911C-74BAA462A415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0910F42-9E43-43F5-BF0E-494B90BC66F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{06EE85D0-79E0-4C85-BDA9-B6537CCBBDD5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="251">
   <si>
     <t>Traditional Programming</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Alternatively, years of experience explains 94.28% of the variation in salary</t>
   </si>
   <si>
-    <t>p-value</t>
-  </si>
-  <si>
     <t xml:space="preserve">R-suqared is also equal to </t>
   </si>
   <si>
@@ -629,9 +626,6 @@
     <t>BUT, with only 2 data points, we can always draw a line without a possibility of error</t>
   </si>
   <si>
-    <t>Rgeression needs a  possibility for error</t>
-  </si>
-  <si>
     <t>df = 1</t>
   </si>
   <si>
@@ -647,15 +641,9 @@
     <t>independent variables?</t>
   </si>
   <si>
-    <t>Instead of a line, think of a plane</t>
-  </si>
-  <si>
     <t>You can draw a plane of best fit for any 3 data points</t>
   </si>
   <si>
-    <t>In multiple linear regression,</t>
-  </si>
-  <si>
     <t>By adding more explanatory variables, degrees of freedom are reduced</t>
   </si>
   <si>
@@ -665,15 +653,6 @@
     <t>Source: https://www.youtube.com/watch?v=eYTumjgE2IY</t>
   </si>
   <si>
-    <t>k - is the number of explanatory variable</t>
-  </si>
-  <si>
-    <t>df = n - 1</t>
-  </si>
-  <si>
-    <t>What is the least  n where df is a least 2?</t>
-  </si>
-  <si>
     <t>df = 2</t>
   </si>
   <si>
@@ -683,9 +662,6 @@
     <t>Degrees of Freedom and Adjusted R-squared</t>
   </si>
   <si>
-    <t>Adding more variables despite how useless there are will make R-squared higher</t>
-  </si>
-  <si>
     <t>Source: https://medium.com/analytics-vidhya/adjusted-r-squared-formula-explanation-1ce033e25699</t>
   </si>
   <si>
@@ -713,9 +689,6 @@
     <t>there are additional variables</t>
   </si>
   <si>
-    <t>R-squared should then be close to R-squared</t>
-  </si>
-  <si>
     <t>If they are not close. We might need to have more data or number of observations</t>
   </si>
   <si>
@@ -740,9 +713,6 @@
     <t>or</t>
   </si>
   <si>
-    <t>times</t>
-  </si>
-  <si>
     <t>(SST-SSE)</t>
   </si>
   <si>
@@ -750,6 +720,135 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Rgeression needs to have a possibility for error</t>
+  </si>
+  <si>
+    <t>In simple linear regression, k = 1</t>
+  </si>
+  <si>
+    <t>What is the least  n where there is a possibility for error?</t>
+  </si>
+  <si>
+    <t>In multiple linear regression, k &gt; 1</t>
+  </si>
+  <si>
+    <t>k - is the number of explanatory variables</t>
+  </si>
+  <si>
+    <t>Insteaed of a 2D plot, we can use a 3D plot to repressent regression with 2 ind var</t>
+  </si>
+  <si>
+    <t>Instead of a line, think of a plane to fit the data</t>
+  </si>
+  <si>
+    <t>Adding more variables despite how useless they are, will make R-squared higher</t>
+  </si>
+  <si>
+    <t>To addtess, that adjusted R-squared was introduced</t>
+  </si>
+  <si>
+    <t>R-squared should then be close to adjusted R-squared</t>
+  </si>
+  <si>
+    <t>multiplied by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F = </t>
+  </si>
+  <si>
+    <t>Same numerator with R-squared</t>
+  </si>
+  <si>
+    <t>Different denominator</t>
+  </si>
+  <si>
+    <t>SS(mean)-SS(fit)</t>
+  </si>
+  <si>
+    <t>SS(fit)</t>
+  </si>
+  <si>
+    <t>SS(mean)-SS(fit) / (Pfit - Pmean)</t>
+  </si>
+  <si>
+    <t>SS(fit) / (n - Pfit)</t>
+  </si>
+  <si>
+    <t>Pfit is the number f parameters in the regression line (m, b)</t>
+  </si>
+  <si>
+    <t>Pmean is the number of parameters in the horizontal line (b)</t>
+  </si>
+  <si>
+    <t>In simple linea regression, Pfit = 2 , Pmean is always 1</t>
+  </si>
+  <si>
+    <t>Thus, Pfit - Pmean = 1</t>
+  </si>
+  <si>
+    <t>Extended formula, to make the sum of squares in variance form</t>
+  </si>
+  <si>
+    <t>n is the number of samples. We sibtract by Pfit to take into account</t>
+  </si>
+  <si>
+    <t>the number of vairables (similar to the df concept)</t>
+  </si>
+  <si>
+    <t>Generally, we want F to be a big number</t>
+  </si>
+  <si>
+    <t>F-stat and p-value</t>
+  </si>
+  <si>
+    <t>t-stat = coefficient / std. error</t>
+  </si>
+  <si>
+    <t>std. error = sqrt of variance</t>
+  </si>
+  <si>
+    <t>For 95% significance,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this should be &gt; 1.96</t>
+  </si>
+  <si>
+    <t>Source: https://courses.lumenlearning.com/introstats1/chapter/facts-about-the-f-distribution/</t>
+  </si>
+  <si>
+    <t>Source: https://www.youtube.com/watch?v=VvlqA-iO2HA</t>
+  </si>
+  <si>
+    <t>How to turn F into p-value?</t>
+  </si>
+  <si>
+    <t>Steps:</t>
+  </si>
+  <si>
+    <t>1. Generate random data</t>
+  </si>
+  <si>
+    <t>2. Calculate the mean and SS(mean) or SST</t>
+  </si>
+  <si>
+    <t>3. Calculate the fit and SS(fit) or SSE</t>
+  </si>
+  <si>
+    <t>4. Plug the numbers into the equation above, and solve for F</t>
+  </si>
+  <si>
+    <t>5. Plot the F-stat into a historgram</t>
+  </si>
+  <si>
+    <t>6. Repeat steps 1 to 5, hundres to millions of times</t>
+  </si>
+  <si>
+    <t>Another way of solving p-value</t>
+  </si>
+  <si>
+    <t>p-value is the number of extreme values divided by total no. of values</t>
   </si>
 </sst>
 </file>
@@ -1065,11 +1164,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1084,22 +1191,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1731,7 +1830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Regression'!$P$3</c:f>
+              <c:f>'Linear Regression'!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1764,7 +1863,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$4:$O$33</c:f>
+              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1863,7 +1962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
+              <c:f>'Linear Regression'!$Q$4:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2210,7 +2309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Regression'!$P$3</c:f>
+              <c:f>'Linear Regression'!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2243,7 +2342,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$4:$O$33</c:f>
+              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2342,7 +2441,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
+              <c:f>'Linear Regression'!$Q$4:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2689,7 +2788,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Regression'!$P$3</c:f>
+              <c:f>'Linear Regression'!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2722,7 +2821,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$4:$O$33</c:f>
+              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2821,7 +2920,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
+              <c:f>'Linear Regression'!$Q$4:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3168,7 +3267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Regression'!$P$3</c:f>
+              <c:f>'Linear Regression'!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3201,7 +3300,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$4:$O$33</c:f>
+              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3300,7 +3399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
+              <c:f>'Linear Regression'!$Q$4:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3647,7 +3746,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Regression'!$P$3</c:f>
+              <c:f>'Linear Regression'!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3680,7 +3779,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$4:$O$33</c:f>
+              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3779,7 +3878,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$P$4:$P$33</c:f>
+              <c:f>'Linear Regression'!$Q$4:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4126,7 +4225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Regression'!$W$3</c:f>
+              <c:f>'Linear Regression'!$X$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4159,7 +4258,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$V$4:$V$33</c:f>
+              <c:f>'Linear Regression'!$W$4:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4258,7 +4357,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$W$4:$W$33</c:f>
+              <c:f>'Linear Regression'!$X$4:$X$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4627,7 +4726,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$7:$O$9</c:f>
+              <c:f>'Linear Regression'!$P$7:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4645,7 +4744,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$P$7:$P$9</c:f>
+              <c:f>'Linear Regression'!$Q$7:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4932,7 +5031,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$8:$P$8</c:f>
+              <c:f>'Linear Regression'!$P$8:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4947,7 +5046,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Regression'!$O$9:$P$9</c:f>
+              <c:f>'Linear Regression'!$P$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -10486,13 +10585,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>260349</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>77786</xdr:rowOff>
@@ -10522,13 +10621,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>104497</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>98078</xdr:rowOff>
@@ -10560,13 +10659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>114643</xdr:rowOff>
@@ -10598,13 +10697,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>488674</xdr:colOff>
       <xdr:row>203</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>507724</xdr:colOff>
       <xdr:row>215</xdr:row>
       <xdr:rowOff>40099</xdr:rowOff>
@@ -10636,13 +10735,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>309631</xdr:colOff>
       <xdr:row>262</xdr:row>
       <xdr:rowOff>129347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>328681</xdr:colOff>
       <xdr:row>274</xdr:row>
       <xdr:rowOff>51557</xdr:rowOff>
@@ -10674,13 +10773,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>576372</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>168340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>118393</xdr:rowOff>
@@ -10710,7 +10809,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>4647</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76045</xdr:rowOff>
@@ -10772,16 +10871,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>293</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>294</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10820,16 +10919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
       <xdr:row>292</xdr:row>
       <xdr:rowOff>81616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1169320</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1172495</xdr:colOff>
       <xdr:row>308</xdr:row>
-      <xdr:rowOff>124535</xdr:rowOff>
+      <xdr:rowOff>121360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10864,16 +10963,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>437030</xdr:colOff>
       <xdr:row>326</xdr:row>
       <xdr:rowOff>86472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>48522</xdr:colOff>
       <xdr:row>340</xdr:row>
-      <xdr:rowOff>122347</xdr:rowOff>
+      <xdr:rowOff>125522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10908,16 +11007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>145901</xdr:colOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>142726</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>6507</xdr:rowOff>
+      <xdr:rowOff>9682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10961,7 +11060,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>244987</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>64060</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11020,9 +11119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
+      <xdr:colOff>8032</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>141756</xdr:rowOff>
+      <xdr:rowOff>144931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11081,7 +11180,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541494</xdr:colOff>
+      <xdr:colOff>544669</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>151840</xdr:rowOff>
     </xdr:to>
@@ -11142,9 +11241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>122849</xdr:colOff>
+      <xdr:colOff>126024</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>11579</xdr:rowOff>
+      <xdr:rowOff>8404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11415,7 +11514,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504611</xdr:colOff>
+      <xdr:colOff>507786</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>55281</xdr:rowOff>
     </xdr:to>
@@ -11732,9 +11831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>369872</xdr:colOff>
+      <xdr:colOff>373047</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>30162</xdr:rowOff>
+      <xdr:rowOff>26987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11786,13 +11885,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>251385</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>69289</xdr:rowOff>
@@ -11822,13 +11921,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>291352</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -11872,13 +11971,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>25587</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>163792</xdr:rowOff>
@@ -11908,14 +12007,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>8642</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>11818</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>1817</xdr:rowOff>
     </xdr:to>
@@ -11952,13 +12051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>84792</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>89686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>590737</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>2188</xdr:rowOff>
@@ -11996,16 +12095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>238499</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10351</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>141602</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>311956</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>27698</xdr:rowOff>
+      <xdr:rowOff>163770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12028,8 +12127,113 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21081440" y="19146778"/>
-          <a:ext cx="3661148" cy="785742"/>
+          <a:off x="21006172" y="18849068"/>
+          <a:ext cx="4587855" cy="949809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>246289</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Facts about the F Distribution | Introduction to Statistics">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911EB20D-802D-D39D-E3CC-CA1673A4DC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="27813000" y="10586357"/>
+          <a:ext cx="4668610" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>58511</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>83089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>7259</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>125831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0D4424-CDCF-6902-191C-2D76789858C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28130047" y="14942089"/>
+          <a:ext cx="4115708" cy="1991738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12573,10 +12777,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12927,29 +13127,29 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="G2" s="44" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="G2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="J2" s="43" t="s">
+      <c r="H2" s="40"/>
+      <c r="J2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="M2" s="43" t="s">
+      <c r="K2" s="39"/>
+      <c r="M2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -12970,18 +13170,18 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="N3" s="45" t="s">
+      <c r="K3" s="41"/>
+      <c r="N3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -13025,18 +13225,18 @@
         <f t="shared" ref="H5:H16" si="0">IF(G5 &gt;= $D$8, $E$8, IF(AND(G5 &lt; $D$8, G5 &gt;= $D$7), $E$7, IF(AND(G5 &lt; $D$7, G5 &gt;= $D$6), $E$6, IF(AND(G5 &lt; $D$6, G5 &gt;= $D$5), $E$5, IF(AND(G5 &lt; $D$5, G5 &gt;= $D$4), $E$4, "Upskill ka muna")))))</f>
         <v>40000</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="N5" s="40" t="s">
+      <c r="K5" s="42"/>
+      <c r="N5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="42"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
       <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -13056,14 +13256,14 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
       <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -13083,18 +13283,18 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="N7" s="39" t="s">
+      <c r="K7" s="40"/>
+      <c r="N7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -13120,14 +13320,14 @@
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
       <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -13144,14 +13344,14 @@
       <c r="K9" s="14">
         <v>40000</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="42"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="46"/>
       <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -13168,14 +13368,14 @@
       <c r="K10" s="4">
         <v>60000</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="46"/>
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -13207,14 +13407,14 @@
       <c r="K12" s="4">
         <v>100000</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="G13" s="4">
@@ -13354,10 +13554,10 @@
       </c>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="37"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.35">
       <c r="N23" t="s">
@@ -13432,10 +13632,10 @@
       </c>
     </row>
     <row r="39" spans="10:15" x14ac:dyDescent="0.35">
-      <c r="N39" s="38" t="s">
+      <c r="N39" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="38"/>
+      <c r="O39" s="48"/>
     </row>
     <row r="40" spans="10:15" x14ac:dyDescent="0.35">
       <c r="N40" s="18" t="s">
@@ -13641,18 +13841,25 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.35">
-      <c r="N63" s="37" t="s">
+      <c r="N63" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
     <mergeCell ref="M2:T2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
@@ -13664,13 +13871,6 @@
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16801,3742 +17001,3886 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C23027-444A-4A5F-989F-F5E5429A7DF6}">
-  <dimension ref="A1:AS347"/>
+  <dimension ref="A1:AV347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO67" sqref="AO67"/>
+    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO103" sqref="AO103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.7265625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7265625" style="10" customWidth="1"/>
-    <col min="22" max="22" width="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.7265625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="4.7265625" style="10" customWidth="1"/>
-    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.7265625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="4.7265625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7265625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7265625" style="10" customWidth="1"/>
+    <col min="39" max="39" width="4.7265625" style="10" customWidth="1"/>
+    <col min="42" max="42" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.7265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B1" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="N1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="U1" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AC1" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AN1" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="M1" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="T1" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AB1" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AL1" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>39343</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>39343</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1.3</v>
+      </c>
+      <c r="Q5">
+        <v>46205</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>46205</v>
+      </c>
+      <c r="AB5" s="11"/>
+      <c r="AD5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM5" s="11"/>
+      <c r="AO5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV5" s="11"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1.5</v>
+      </c>
+      <c r="Q6">
+        <v>37731</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>37731</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>43525</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>43525</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>39891</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>39891</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>2.9</v>
+      </c>
+      <c r="Q9">
+        <v>56642</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>56642</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>60150</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>60150</v>
+      </c>
+      <c r="AP10" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR10" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>3.2</v>
+      </c>
+      <c r="Q11">
+        <v>54445</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>54445</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O12">
         <v>9</v>
       </c>
-      <c r="V3" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="P12">
+        <v>3.2</v>
+      </c>
+      <c r="Q12">
+        <v>64445</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>64445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>3.7</v>
+      </c>
+      <c r="Q13">
+        <v>57189</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>57189</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>3.9</v>
+      </c>
+      <c r="Q14">
+        <v>63218</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>63218</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP14" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR14" s="38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>55794</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>55794</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>56957</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>56957</v>
+      </c>
+    </row>
+    <row r="17" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q17">
+        <v>57081</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>57081</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP17" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>4.5</v>
+      </c>
+      <c r="Q18">
+        <v>61111</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>61111</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q19">
+        <v>67938</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>67938</v>
+      </c>
+    </row>
+    <row r="20" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q20">
+        <v>66029</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>66029</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP20" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>5.3</v>
+      </c>
+      <c r="Q21">
+        <v>83088</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>83088</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>5.9</v>
+      </c>
+      <c r="Q22">
+        <v>81363</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>81363</v>
+      </c>
+    </row>
+    <row r="23" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>93940</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>93940</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <v>6.8</v>
+      </c>
+      <c r="Q24">
+        <v>91738</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>91738</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP24" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O25">
+        <v>22</v>
+      </c>
+      <c r="P25">
+        <v>7.1</v>
+      </c>
+      <c r="Q25">
+        <v>98273</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>98273</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O26">
+        <v>23</v>
+      </c>
+      <c r="P26">
+        <v>7.9</v>
+      </c>
+      <c r="Q26">
+        <v>101302</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>101302</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O27">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q27">
+        <v>113812</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>113812</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O28">
+        <v>25</v>
+      </c>
+      <c r="P28">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q28">
+        <v>109431</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>109431</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O29">
+        <v>26</v>
+      </c>
+      <c r="P29">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P4">
-        <v>39343</v>
-      </c>
-      <c r="V4">
+      <c r="Q29">
+        <v>105582</v>
+      </c>
+      <c r="W29">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>39343</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>1.3</v>
-      </c>
-      <c r="P5">
-        <v>46205</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="V5">
+      <c r="X29">
+        <v>105582</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP29" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+    </row>
+    <row r="30" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O30">
+        <v>27</v>
+      </c>
+      <c r="P30">
+        <v>9.5</v>
+      </c>
+      <c r="Q30">
+        <v>116969</v>
+      </c>
+      <c r="W30">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>46205</v>
-      </c>
-      <c r="AA5" s="11"/>
-      <c r="AC5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK5" s="11"/>
-      <c r="AM5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN5" t="s">
+      <c r="X30">
+        <v>116969</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O31">
+        <v>28</v>
+      </c>
+      <c r="P31">
+        <v>9.6</v>
+      </c>
+      <c r="Q31">
+        <v>112635</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>112635</v>
+      </c>
+    </row>
+    <row r="32" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O32">
+        <v>29</v>
+      </c>
+      <c r="P32">
+        <v>10.3</v>
+      </c>
+      <c r="Q32">
+        <v>122391</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>122391</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <v>10.5</v>
+      </c>
+      <c r="Q33">
+        <v>121872</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>121872</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="F37" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="AO40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="AO44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP44" s="38">
+        <f>(Y84-Y88)/1</f>
+        <v>20539139730</v>
+      </c>
+      <c r="AQ44" t="s">
         <v>207</v>
       </c>
-      <c r="AS5" s="11"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>1.5</v>
-      </c>
-      <c r="P6">
-        <v>37731</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>37731</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>43525</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>43525</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P8">
-        <v>39891</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>39891</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>2.9</v>
-      </c>
-      <c r="P9">
-        <v>56642</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>56642</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N10">
-        <v>7</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>60150</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>60150</v>
-      </c>
-      <c r="AN10" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP10" s="49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N11">
-        <v>8</v>
-      </c>
-      <c r="O11">
-        <v>3.2</v>
-      </c>
-      <c r="P11">
-        <v>54445</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>54445</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N12">
-        <v>9</v>
-      </c>
-      <c r="O12">
-        <v>3.2</v>
-      </c>
-      <c r="P12">
-        <v>64445</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>64445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>3.7</v>
-      </c>
-      <c r="P13">
-        <v>57189</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>57189</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N14">
-        <v>11</v>
-      </c>
-      <c r="O14">
-        <v>3.9</v>
-      </c>
-      <c r="P14">
-        <v>63218</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>63218</v>
-      </c>
-      <c r="AN14" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP14" s="49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N15">
-        <v>12</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15">
-        <v>55794</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>55794</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="N16">
-        <v>13</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <v>56957</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>56957</v>
-      </c>
-    </row>
-    <row r="17" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N17">
-        <v>14</v>
-      </c>
-      <c r="O17">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P17">
-        <v>57081</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>57081</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN17" s="49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N18">
-        <v>15</v>
-      </c>
-      <c r="O18">
-        <v>4.5</v>
-      </c>
-      <c r="P18">
-        <v>61111</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>61111</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N19">
-        <v>16</v>
-      </c>
-      <c r="O19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P19">
-        <v>67938</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>67938</v>
-      </c>
-    </row>
-    <row r="20" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N20">
-        <v>17</v>
-      </c>
-      <c r="O20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P20">
-        <v>66029</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>66029</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN20" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N21">
-        <v>18</v>
-      </c>
-      <c r="O21">
-        <v>5.3</v>
-      </c>
-      <c r="P21">
-        <v>83088</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>83088</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N22">
-        <v>19</v>
-      </c>
-      <c r="O22">
-        <v>5.9</v>
-      </c>
-      <c r="P22">
-        <v>81363</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>81363</v>
-      </c>
-    </row>
-    <row r="23" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N23">
-        <v>20</v>
-      </c>
-      <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="P23">
-        <v>93940</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>93940</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N24">
-        <v>21</v>
-      </c>
-      <c r="O24">
-        <v>6.8</v>
-      </c>
-      <c r="P24">
-        <v>91738</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>91738</v>
-      </c>
-    </row>
-    <row r="25" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N25">
-        <v>22</v>
-      </c>
-      <c r="O25">
-        <v>7.1</v>
-      </c>
-      <c r="P25">
-        <v>98273</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>98273</v>
-      </c>
-    </row>
-    <row r="26" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N26">
-        <v>23</v>
-      </c>
-      <c r="O26">
-        <v>7.9</v>
-      </c>
-      <c r="P26">
-        <v>101302</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>101302</v>
-      </c>
-    </row>
-    <row r="27" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N27">
-        <v>24</v>
-      </c>
-      <c r="O27">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="P27">
-        <v>113812</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>113812</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N28">
-        <v>25</v>
-      </c>
-      <c r="O28">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P28">
-        <v>109431</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>109431</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N29">
-        <v>26</v>
-      </c>
-      <c r="O29">
-        <v>9</v>
-      </c>
-      <c r="P29">
-        <v>105582</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>105582</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N30">
-        <v>27</v>
-      </c>
-      <c r="O30">
-        <v>9.5</v>
-      </c>
-      <c r="P30">
-        <v>116969</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>116969</v>
-      </c>
-    </row>
-    <row r="31" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N31">
-        <v>28</v>
-      </c>
-      <c r="O31">
-        <v>9.6</v>
-      </c>
-      <c r="P31">
-        <v>112635</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>112635</v>
-      </c>
-    </row>
-    <row r="32" spans="14:40" x14ac:dyDescent="0.35">
-      <c r="N32">
-        <v>29</v>
-      </c>
-      <c r="O32">
-        <v>10.3</v>
-      </c>
-      <c r="P32">
-        <v>122391</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>122391</v>
-      </c>
-    </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="N33">
-        <v>30</v>
-      </c>
-      <c r="O33">
-        <v>10.5</v>
-      </c>
-      <c r="P33">
-        <v>121872</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>121872</v>
-      </c>
-    </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="F37" s="47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="AR44">
+        <f>AP44/AP45</f>
+        <v>457.93793193992559</v>
+      </c>
+    </row>
+    <row r="45" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="AP45">
+        <f>Y88/(COUNT(W53:W82)-2)</f>
+        <v>44851361.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:44" x14ac:dyDescent="0.35">
+      <c r="AO48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="3:41" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>84</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:41" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>79</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>83</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>76003</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>112</v>
       </c>
-      <c r="V50">
-        <f>AVERAGE(W4:W33)</f>
+      <c r="W50">
+        <f>AVERAGE(X4:X33)</f>
         <v>76003</v>
       </c>
-      <c r="AC50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="AD50" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="3:41" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>80</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>90</v>
       </c>
-      <c r="O51" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="P51" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="3:41" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>81</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>25</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>76003</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>66</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>82</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>123</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>88</v>
       </c>
-      <c r="AC52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="U53">
+      <c r="AD52" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="V53">
         <v>1</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W53">
-        <f>W4-$V$50</f>
+      <c r="X53">
+        <f>X4-$W$50</f>
         <v>-36660</v>
       </c>
-      <c r="X53">
-        <f>W53^2</f>
+      <c r="Y53">
+        <f>X53^2</f>
         <v>1343955600</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N54" s="25" t="s">
+      <c r="AO53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O54" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>2</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>1.3</v>
       </c>
-      <c r="W54">
-        <f t="shared" ref="W54:W82" si="0">W5-$V$50</f>
+      <c r="X54">
+        <f t="shared" ref="X54:X82" si="0">X5-$W$50</f>
         <v>-29798</v>
       </c>
-      <c r="X54">
-        <f t="shared" ref="X54:X82" si="1">W54^2</f>
+      <c r="Y54">
+        <f t="shared" ref="Y54:Y82" si="1">X54^2</f>
         <v>887920804</v>
       </c>
-      <c r="AC54" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="U55">
+      <c r="AD54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="V55">
         <v>3</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>1.5</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <f t="shared" si="0"/>
         <v>-38272</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <f t="shared" si="1"/>
         <v>1464745984</v>
       </c>
-      <c r="AC55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N56" t="s">
+      <c r="AD55" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O56" t="s">
         <v>66</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>82</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>87</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>88</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>4</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>2</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <f t="shared" si="0"/>
         <v>-32478</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <f t="shared" si="1"/>
         <v>1054820484</v>
       </c>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N57">
+      <c r="AO56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O57">
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P57">
-        <f>P4- $O$52</f>
+      <c r="Q57">
+        <f>Q4- $P$52</f>
         <v>-36660</v>
       </c>
-      <c r="Q57">
-        <f>P57^2</f>
+      <c r="R57">
+        <f>Q57^2</f>
         <v>1343955600</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>5</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <f t="shared" si="0"/>
         <v>-36112</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <f t="shared" si="1"/>
         <v>1304076544</v>
       </c>
-      <c r="AC57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N58">
+      <c r="AD57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O58">
         <v>2</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>1.3</v>
       </c>
-      <c r="P58">
-        <f t="shared" ref="P58:P86" si="2">P5- $O$52</f>
+      <c r="Q58">
+        <f t="shared" ref="Q58:Q86" si="2">Q5- $P$52</f>
         <v>-29798</v>
       </c>
-      <c r="Q58">
-        <f t="shared" ref="Q58:Q86" si="3">P58^2</f>
+      <c r="R58">
+        <f t="shared" ref="R58:R86" si="3">Q58^2</f>
         <v>887920804</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>6</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>2.9</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <f t="shared" si="0"/>
         <v>-19361</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <f t="shared" si="1"/>
         <v>374848321</v>
       </c>
-      <c r="AC58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N59">
+      <c r="AD58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O59">
         <v>3</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>1.5</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <f t="shared" si="2"/>
         <v>-38272</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <f t="shared" si="3"/>
         <v>1464745984</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>7</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>3</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <f t="shared" si="0"/>
         <v>-15853</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <f t="shared" si="1"/>
         <v>251317609</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N60">
+      <c r="AD59" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO59" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O60">
         <v>4</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>2</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <f t="shared" si="2"/>
         <v>-32478</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <f t="shared" si="3"/>
         <v>1054820484</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>8</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>3.2</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <f t="shared" si="0"/>
         <v>-21558</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <f t="shared" si="1"/>
         <v>464747364</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N61">
+    <row r="61" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O61">
         <v>5</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <f t="shared" si="2"/>
         <v>-36112</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <f t="shared" si="3"/>
         <v>1304076544</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>9</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>3.2</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <f t="shared" si="0"/>
         <v>-11558</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <f t="shared" si="1"/>
         <v>133587364</v>
       </c>
-      <c r="AC61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N62">
+      <c r="AD61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O62">
         <v>6</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>2.9</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <f t="shared" si="2"/>
         <v>-19361</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <f t="shared" si="3"/>
         <v>374848321</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>10</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>3.7</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <f t="shared" si="0"/>
         <v>-18814</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <f t="shared" si="1"/>
         <v>353966596</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N63">
+    <row r="63" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O63">
         <v>7</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>3</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <f t="shared" si="2"/>
         <v>-15853</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <f t="shared" si="3"/>
         <v>251317609</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>11</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>3.9</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <f t="shared" si="0"/>
         <v>-12785</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <f t="shared" si="1"/>
         <v>163456225</v>
       </c>
     </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="N64">
+    <row r="64" spans="3:41" x14ac:dyDescent="0.35">
+      <c r="O64">
         <v>8</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>3.2</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <f t="shared" si="2"/>
         <v>-21558</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <f t="shared" si="3"/>
         <v>464747364</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>12</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>4</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <f t="shared" si="0"/>
         <v>-20209</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <f t="shared" si="1"/>
         <v>408403681</v>
       </c>
     </row>
-    <row r="65" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N65">
+    <row r="65" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O65">
         <v>9</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>3.2</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <f t="shared" si="2"/>
         <v>-11558</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <f t="shared" si="3"/>
         <v>133587364</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>13</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>4</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <f t="shared" si="0"/>
         <v>-19046</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <f t="shared" si="1"/>
         <v>362750116</v>
       </c>
     </row>
-    <row r="66" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N66">
+    <row r="66" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O66">
         <v>10</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>3.7</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <f t="shared" si="2"/>
         <v>-18814</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <f t="shared" si="3"/>
         <v>353966596</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>14</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <f t="shared" si="0"/>
         <v>-18922</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <f t="shared" si="1"/>
         <v>358042084</v>
       </c>
     </row>
-    <row r="67" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N67">
+    <row r="67" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O67">
         <v>11</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>3.9</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <f t="shared" si="2"/>
         <v>-12785</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <f t="shared" si="3"/>
         <v>163456225</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>15</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>4.5</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <f t="shared" si="0"/>
         <v>-14892</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <f t="shared" si="1"/>
         <v>221771664</v>
       </c>
     </row>
-    <row r="68" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N68">
+    <row r="68" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O68">
         <v>12</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>4</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <f t="shared" si="2"/>
         <v>-20209</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <f t="shared" si="3"/>
         <v>408403681</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>16</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <f t="shared" si="0"/>
         <v>-8065</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <f t="shared" si="1"/>
         <v>65044225</v>
       </c>
     </row>
-    <row r="69" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N69">
+    <row r="69" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O69">
         <v>13</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>4</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <f t="shared" si="2"/>
         <v>-19046</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <f t="shared" si="3"/>
         <v>362750116</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>17</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>5.0999999999999996</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <f t="shared" si="0"/>
         <v>-9974</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <f t="shared" si="1"/>
         <v>99480676</v>
       </c>
     </row>
-    <row r="70" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N70">
+    <row r="70" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O70">
         <v>14</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <f t="shared" si="2"/>
         <v>-18922</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <f t="shared" si="3"/>
         <v>358042084</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>18</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>5.3</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <f t="shared" si="0"/>
         <v>7085</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <f t="shared" si="1"/>
         <v>50197225</v>
       </c>
     </row>
-    <row r="71" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N71">
+    <row r="71" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O71">
         <v>15</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>4.5</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <f t="shared" si="2"/>
         <v>-14892</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <f t="shared" si="3"/>
         <v>221771664</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>19</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>5.9</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <f t="shared" si="0"/>
         <v>5360</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <f t="shared" si="1"/>
         <v>28729600</v>
       </c>
     </row>
-    <row r="72" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N72">
+    <row r="72" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O72">
         <v>16</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <f t="shared" si="2"/>
         <v>-8065</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <f t="shared" si="3"/>
         <v>65044225</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>20</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>6</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <f t="shared" si="0"/>
         <v>17937</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <f t="shared" si="1"/>
         <v>321735969</v>
       </c>
     </row>
-    <row r="73" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N73">
+    <row r="73" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O73">
         <v>17</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <f t="shared" si="2"/>
         <v>-9974</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <f t="shared" si="3"/>
         <v>99480676</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>21</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>6.8</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <f t="shared" si="0"/>
         <v>15735</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <f t="shared" si="1"/>
         <v>247590225</v>
       </c>
     </row>
-    <row r="74" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N74">
+    <row r="74" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O74">
         <v>18</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>5.3</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <f t="shared" si="2"/>
         <v>7085</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <f t="shared" si="3"/>
         <v>50197225</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>22</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>7.1</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <f t="shared" si="0"/>
         <v>22270</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <f t="shared" si="1"/>
         <v>495952900</v>
       </c>
     </row>
-    <row r="75" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N75">
+    <row r="75" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O75">
         <v>19</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>5.9</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <f t="shared" si="2"/>
         <v>5360</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <f t="shared" si="3"/>
         <v>28729600</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>23</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>7.9</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <f t="shared" si="0"/>
         <v>25299</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <f t="shared" si="1"/>
         <v>640039401</v>
       </c>
     </row>
-    <row r="76" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N76">
+    <row r="76" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O76">
         <v>20</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>6</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <f t="shared" si="2"/>
         <v>17937</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <f t="shared" si="3"/>
         <v>321735969</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>24</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>8.1999999999999993</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <f t="shared" si="0"/>
         <v>37809</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <f t="shared" si="1"/>
         <v>1429520481</v>
       </c>
     </row>
-    <row r="77" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N77">
+    <row r="77" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O77">
         <v>21</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>6.8</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <f t="shared" si="2"/>
         <v>15735</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <f t="shared" si="3"/>
         <v>247590225</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>25</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>8.6999999999999993</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <f t="shared" si="0"/>
         <v>33428</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <f t="shared" si="1"/>
         <v>1117431184</v>
       </c>
     </row>
-    <row r="78" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N78">
+    <row r="78" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O78">
         <v>22</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>7.1</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <f t="shared" si="2"/>
         <v>22270</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <f t="shared" si="3"/>
         <v>495952900</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>26</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>9</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <f t="shared" si="0"/>
         <v>29579</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <f t="shared" si="1"/>
         <v>874917241</v>
       </c>
-    </row>
-    <row r="79" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N79">
+      <c r="AO78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O79">
         <v>23</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>7.9</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <f t="shared" si="2"/>
         <v>25299</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <f t="shared" si="3"/>
         <v>640039401</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>27</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>9.5</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <f t="shared" si="0"/>
         <v>40966</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <f t="shared" si="1"/>
         <v>1678213156</v>
       </c>
     </row>
-    <row r="80" spans="14:24" x14ac:dyDescent="0.35">
-      <c r="N80">
+    <row r="80" spans="15:43" x14ac:dyDescent="0.35">
+      <c r="O80">
         <v>24</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <f t="shared" si="2"/>
         <v>37809</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <f t="shared" si="3"/>
         <v>1429520481</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>28</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>9.6</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <f t="shared" si="0"/>
         <v>36632</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <f t="shared" si="1"/>
         <v>1341903424</v>
       </c>
-    </row>
-    <row r="81" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="N81">
+      <c r="AO80" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ80">
+        <f>SQRT(Y89)</f>
+        <v>6470.0286501168857</v>
+      </c>
+    </row>
+    <row r="81" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O81">
         <v>25</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <f t="shared" si="2"/>
         <v>33428</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <f t="shared" si="3"/>
         <v>1117431184</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>29</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>10.3</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <f t="shared" si="0"/>
         <v>46388</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <f t="shared" si="1"/>
         <v>2151846544</v>
       </c>
-    </row>
-    <row r="82" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="N82">
+      <c r="AO81" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ81">
+        <f>P162/AQ80</f>
+        <v>1.545588210002647</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O82">
         <v>26</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>9</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <f t="shared" si="2"/>
         <v>29579</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <f t="shared" si="3"/>
         <v>874917241</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>30</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>10.5</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <f t="shared" si="0"/>
         <v>45869</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <f t="shared" si="1"/>
         <v>2103965161</v>
       </c>
-    </row>
-    <row r="83" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="N83">
+      <c r="AR82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O83">
         <v>27</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>9.5</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <f t="shared" si="2"/>
         <v>40966</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <f t="shared" si="3"/>
         <v>1678213156</v>
       </c>
     </row>
-    <row r="84" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="N84">
+    <row r="84" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O84">
         <v>28</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>9.6</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <f t="shared" si="2"/>
         <v>36632</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <f t="shared" si="3"/>
         <v>1341903424</v>
       </c>
-      <c r="U84" t="s">
-        <v>161</v>
-      </c>
       <c r="V84" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="W84" t="s">
+        <v>165</v>
+      </c>
+      <c r="X84" t="s">
         <v>113</v>
       </c>
-      <c r="X84">
-        <f>SUM(X53:X82)</f>
+      <c r="Y84">
+        <f>SUM(Y53:Y82)</f>
         <v>21794977852</v>
       </c>
     </row>
-    <row r="85" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="N85">
+    <row r="85" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O85">
         <v>29</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>10.3</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <f t="shared" si="2"/>
         <v>46388</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <f t="shared" si="3"/>
         <v>2151846544</v>
       </c>
-      <c r="V85" t="s">
+      <c r="W85" t="s">
         <v>116</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>114</v>
       </c>
-      <c r="X85" s="34">
-        <f>X84/COUNT(V53:V82)</f>
+      <c r="Y85" s="34">
+        <f>Y84/COUNT(W53:W82)</f>
         <v>726499261.73333335</v>
       </c>
-    </row>
-    <row r="86" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="N86">
+      <c r="AO85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="O86">
         <v>30</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>10.5</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <f t="shared" si="2"/>
         <v>45869</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <f t="shared" si="3"/>
         <v>2103965161</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>114</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="O88" t="s">
-        <v>161</v>
-      </c>
+    <row r="88" spans="15:44" x14ac:dyDescent="0.35">
       <c r="P88" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q88" t="s">
         <v>89</v>
       </c>
-      <c r="Q88">
-        <f>SUM(Q57:Q86)</f>
+      <c r="R88">
+        <f>SUM(R57:R86)</f>
         <v>21794977852</v>
       </c>
-      <c r="V88" t="s">
-        <v>165</v>
-      </c>
       <c r="W88" t="s">
+        <v>164</v>
+      </c>
+      <c r="X88" t="s">
         <v>117</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>1255838122</v>
       </c>
     </row>
-    <row r="89" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="O89" t="s">
-        <v>164</v>
-      </c>
-      <c r="V89" t="s">
+    <row r="89" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="P89" t="s">
+        <v>163</v>
+      </c>
+      <c r="W89" t="s">
         <v>118</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>119</v>
       </c>
-      <c r="X89" s="34">
-        <f>X88/30</f>
+      <c r="Y89" s="34">
+        <f>Y88/30</f>
         <v>41861270.733333334</v>
       </c>
     </row>
-    <row r="90" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="W90" t="s">
+    <row r="90" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="X90" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="U92" t="s">
+    <row r="92" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="V92" t="s">
         <v>121</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="AD92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="V93" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="V95" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="15:44" x14ac:dyDescent="0.35">
+      <c r="V96" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="V98" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="V99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="AD100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="V101" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD101" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="U93" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="U95" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="14:32" x14ac:dyDescent="0.35">
-      <c r="U96" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="U98" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="U99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="AC100" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="U101" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="U102" t="s">
+    <row r="102" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="V102" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="104" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="U104" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC104" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="105" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N105" t="s">
+      <c r="AO102" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="AD103" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="V104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="O105" t="s">
         <v>27</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <f>(100000-60000)/(10-2)</f>
         <v>5000</v>
       </c>
-      <c r="U105" t="s">
+      <c r="V105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="O106" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD106" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="O107" t="s">
+        <v>92</v>
+      </c>
+      <c r="P107" t="s">
+        <v>94</v>
+      </c>
+      <c r="V107" t="s">
+        <v>130</v>
+      </c>
+      <c r="W107" t="s">
+        <v>166</v>
+      </c>
+      <c r="X107" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N106" t="s">
-        <v>25</v>
-      </c>
-      <c r="O106" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N107" t="s">
-        <v>92</v>
-      </c>
-      <c r="O107" t="s">
-        <v>94</v>
-      </c>
-      <c r="U107" t="s">
-        <v>130</v>
-      </c>
-      <c r="V107" t="s">
-        <v>167</v>
-      </c>
-      <c r="W107" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="108" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N108" t="s">
+    <row r="108" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="O108" t="s">
         <v>83</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <f>80000-(5000 * 6)</f>
         <v>50000</v>
       </c>
-      <c r="V108" t="s">
-        <v>168</v>
-      </c>
       <c r="W108" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N109" t="s">
+        <v>167</v>
+      </c>
+      <c r="X108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="O109" t="s">
         <v>25</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="U110" t="s">
+    <row r="110" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="V110" t="s">
         <v>130</v>
       </c>
-      <c r="V110" t="s">
+      <c r="W110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N111" s="33" t="s">
+    <row r="111" spans="15:41" x14ac:dyDescent="0.35">
+      <c r="O111" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>130</v>
       </c>
-      <c r="V111">
-        <f>(X85-X89)/X85</f>
+      <c r="W111">
+        <f>(Y85-Y89)/Y85</f>
         <v>0.94237947243957587</v>
       </c>
     </row>
-    <row r="113" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N113" t="s">
+    <row r="113" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O113" t="s">
         <v>66</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>82</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>123</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="R113" t="s">
         <v>88</v>
       </c>
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N114">
+    <row r="114" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O114">
         <v>1</v>
       </c>
-      <c r="O114">
+      <c r="P114">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P114">
-        <f>P4 - ($O$105*O114+$O$108)</f>
+      <c r="Q114">
+        <f>Q4 - ($P$105*P114+$P$108)</f>
         <v>-16157</v>
       </c>
-      <c r="Q114">
-        <f>P114^2</f>
+      <c r="R114">
+        <f>Q114^2</f>
         <v>261048649</v>
       </c>
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N115">
+    <row r="115" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O115">
         <v>2</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>1.3</v>
       </c>
-      <c r="P115">
-        <f t="shared" ref="P115:P143" si="4">P5 - ($O$105*O115+$O$108)</f>
+      <c r="Q115">
+        <f t="shared" ref="Q115:Q143" si="4">Q5 - ($P$105*P115+$P$108)</f>
         <v>-10295</v>
       </c>
-      <c r="Q115">
-        <f t="shared" ref="Q115:Q143" si="5">P115^2</f>
+      <c r="R115">
+        <f t="shared" ref="R115:R143" si="5">Q115^2</f>
         <v>105987025</v>
       </c>
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>134</v>
       </c>
-      <c r="AC115" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="116" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N116">
+      <c r="AD115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O116">
         <v>3</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <v>1.5</v>
       </c>
-      <c r="P116">
+      <c r="Q116">
         <f t="shared" si="4"/>
         <v>-19769</v>
       </c>
-      <c r="Q116">
-        <f>P116^2</f>
+      <c r="R116">
+        <f>Q116^2</f>
         <v>390813361</v>
       </c>
-      <c r="AC116" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N117">
+      <c r="AD116" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>2</v>
       </c>
-      <c r="P117">
+      <c r="Q117">
         <f t="shared" si="4"/>
         <v>-16475</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <f t="shared" si="5"/>
         <v>271425625</v>
       </c>
     </row>
-    <row r="118" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N118">
+    <row r="118" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O118">
         <v>5</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P118">
+      <c r="Q118">
         <f t="shared" si="4"/>
         <v>-21109</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <f t="shared" si="5"/>
         <v>445589881</v>
       </c>
-      <c r="U118" t="s">
+      <c r="V118" t="s">
+        <v>135</v>
+      </c>
+      <c r="W118" t="s">
         <v>136</v>
       </c>
-      <c r="V118" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="119" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N119">
+      <c r="AD118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O119">
         <v>6</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <v>2.9</v>
       </c>
-      <c r="P119">
+      <c r="Q119">
         <f t="shared" si="4"/>
         <v>-7858</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <f t="shared" si="5"/>
         <v>61748164</v>
       </c>
-      <c r="U119" t="s">
+      <c r="V119" t="s">
         <v>130</v>
       </c>
-      <c r="V119">
-        <f>(X84-X88)/X84</f>
+      <c r="W119">
+        <f>(Y84-Y88)/Y84</f>
         <v>0.94237947243957587</v>
       </c>
-      <c r="AC119" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N120">
+      <c r="AD119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O120">
         <v>7</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>3</v>
       </c>
-      <c r="P120">
+      <c r="Q120">
         <f t="shared" si="4"/>
         <v>-4850</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <f t="shared" si="5"/>
         <v>23522500</v>
       </c>
     </row>
-    <row r="121" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N121">
+    <row r="121" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O121">
         <v>8</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>3.2</v>
       </c>
-      <c r="P121">
+      <c r="Q121">
         <f t="shared" si="4"/>
         <v>-11555</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <f t="shared" si="5"/>
         <v>133518025</v>
       </c>
     </row>
-    <row r="122" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N122">
+    <row r="122" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O122">
         <v>9</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>3.2</v>
       </c>
-      <c r="P122">
+      <c r="Q122">
         <f t="shared" si="4"/>
         <v>-1555</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <f t="shared" si="5"/>
         <v>2418025</v>
       </c>
     </row>
-    <row r="123" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N123">
+    <row r="123" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O123">
         <v>10</v>
       </c>
-      <c r="O123">
+      <c r="P123">
         <v>3.7</v>
       </c>
-      <c r="P123">
+      <c r="Q123">
         <f t="shared" si="4"/>
         <v>-11311</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <f t="shared" si="5"/>
         <v>127938721</v>
       </c>
     </row>
-    <row r="124" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N124">
+    <row r="124" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O124">
         <v>11</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>3.9</v>
       </c>
-      <c r="P124">
+      <c r="Q124">
         <f t="shared" si="4"/>
         <v>-6282</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <f t="shared" si="5"/>
         <v>39463524</v>
       </c>
     </row>
-    <row r="125" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N125">
+    <row r="125" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O125">
         <v>12</v>
       </c>
-      <c r="O125">
+      <c r="P125">
         <v>4</v>
       </c>
-      <c r="P125">
+      <c r="Q125">
         <f t="shared" si="4"/>
         <v>-14206</v>
       </c>
-      <c r="Q125">
+      <c r="R125">
         <f t="shared" si="5"/>
         <v>201810436</v>
       </c>
     </row>
-    <row r="126" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N126">
+    <row r="126" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O126">
         <v>13</v>
       </c>
-      <c r="O126">
+      <c r="P126">
         <v>4</v>
       </c>
-      <c r="P126">
+      <c r="Q126">
         <f t="shared" si="4"/>
         <v>-13043</v>
       </c>
-      <c r="Q126">
+      <c r="R126">
         <f t="shared" si="5"/>
         <v>170119849</v>
       </c>
     </row>
-    <row r="127" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N127">
+    <row r="127" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O127">
         <v>14</v>
       </c>
-      <c r="O127">
+      <c r="P127">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P127">
+      <c r="Q127">
         <f t="shared" si="4"/>
         <v>-13419</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <f t="shared" si="5"/>
         <v>180069561</v>
       </c>
     </row>
-    <row r="128" spans="14:29" x14ac:dyDescent="0.35">
-      <c r="N128">
+    <row r="128" spans="15:30" x14ac:dyDescent="0.35">
+      <c r="O128">
         <v>15</v>
       </c>
-      <c r="O128">
+      <c r="P128">
         <v>4.5</v>
       </c>
-      <c r="P128">
+      <c r="Q128">
         <f t="shared" si="4"/>
         <v>-11389</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <f t="shared" si="5"/>
         <v>129709321</v>
       </c>
     </row>
-    <row r="129" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N129">
+    <row r="129" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O129">
         <v>16</v>
       </c>
-      <c r="O129">
+      <c r="P129">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P129">
+      <c r="Q129">
         <f t="shared" si="4"/>
         <v>-6562</v>
       </c>
-      <c r="Q129">
+      <c r="R129">
         <f t="shared" si="5"/>
         <v>43059844</v>
       </c>
     </row>
-    <row r="130" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N130">
+    <row r="130" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O130">
         <v>17</v>
       </c>
-      <c r="O130">
+      <c r="P130">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P130">
+      <c r="Q130">
         <f t="shared" si="4"/>
         <v>-9471</v>
       </c>
-      <c r="Q130">
+      <c r="R130">
         <f t="shared" si="5"/>
         <v>89699841</v>
       </c>
     </row>
-    <row r="131" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N131">
+    <row r="131" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O131">
         <v>18</v>
       </c>
-      <c r="O131">
+      <c r="P131">
         <v>5.3</v>
       </c>
-      <c r="P131">
+      <c r="Q131">
         <f t="shared" si="4"/>
         <v>6588</v>
       </c>
-      <c r="Q131">
+      <c r="R131">
         <f t="shared" si="5"/>
         <v>43401744</v>
       </c>
     </row>
-    <row r="132" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N132">
+    <row r="132" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O132">
         <v>19</v>
       </c>
-      <c r="O132">
+      <c r="P132">
         <v>5.9</v>
       </c>
-      <c r="P132">
+      <c r="Q132">
         <f t="shared" si="4"/>
         <v>1863</v>
       </c>
-      <c r="Q132">
+      <c r="R132">
         <f t="shared" si="5"/>
         <v>3470769</v>
       </c>
     </row>
-    <row r="133" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N133">
+    <row r="133" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O133">
         <v>20</v>
       </c>
-      <c r="O133">
+      <c r="P133">
         <v>6</v>
       </c>
-      <c r="P133">
+      <c r="Q133">
         <f t="shared" si="4"/>
         <v>13940</v>
       </c>
-      <c r="Q133">
+      <c r="R133">
         <f t="shared" si="5"/>
         <v>194323600</v>
       </c>
     </row>
-    <row r="134" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N134">
+    <row r="134" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O134">
         <v>21</v>
       </c>
-      <c r="O134">
+      <c r="P134">
         <v>6.8</v>
       </c>
-      <c r="P134">
+      <c r="Q134">
         <f t="shared" si="4"/>
         <v>7738</v>
       </c>
-      <c r="Q134">
+      <c r="R134">
         <f t="shared" si="5"/>
         <v>59876644</v>
       </c>
     </row>
-    <row r="135" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N135">
+    <row r="135" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O135">
         <v>22</v>
       </c>
-      <c r="O135">
+      <c r="P135">
         <v>7.1</v>
       </c>
-      <c r="P135">
+      <c r="Q135">
         <f t="shared" si="4"/>
         <v>12773</v>
       </c>
-      <c r="Q135">
+      <c r="R135">
         <f t="shared" si="5"/>
         <v>163149529</v>
       </c>
     </row>
-    <row r="136" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N136">
+    <row r="136" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O136">
         <v>23</v>
       </c>
-      <c r="O136">
+      <c r="P136">
         <v>7.9</v>
       </c>
-      <c r="P136">
+      <c r="Q136">
         <f t="shared" si="4"/>
         <v>11802</v>
       </c>
-      <c r="Q136">
+      <c r="R136">
         <f t="shared" si="5"/>
         <v>139287204</v>
       </c>
     </row>
-    <row r="137" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N137">
+    <row r="137" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O137">
         <v>24</v>
       </c>
-      <c r="O137">
+      <c r="P137">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P137">
+      <c r="Q137">
         <f t="shared" si="4"/>
         <v>22812</v>
       </c>
-      <c r="Q137">
+      <c r="R137">
         <f t="shared" si="5"/>
         <v>520387344</v>
       </c>
     </row>
-    <row r="138" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N138">
+    <row r="138" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O138">
         <v>25</v>
       </c>
-      <c r="O138">
+      <c r="P138">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P138">
+      <c r="Q138">
         <f t="shared" si="4"/>
         <v>15931</v>
       </c>
-      <c r="Q138">
+      <c r="R138">
         <f t="shared" si="5"/>
         <v>253796761</v>
       </c>
     </row>
-    <row r="139" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N139">
+    <row r="139" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O139">
         <v>26</v>
       </c>
-      <c r="O139">
+      <c r="P139">
         <v>9</v>
       </c>
-      <c r="P139">
+      <c r="Q139">
         <f t="shared" si="4"/>
         <v>10582</v>
       </c>
-      <c r="Q139">
+      <c r="R139">
         <f t="shared" si="5"/>
         <v>111978724</v>
       </c>
     </row>
-    <row r="140" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N140">
+    <row r="140" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O140">
         <v>27</v>
       </c>
-      <c r="O140">
+      <c r="P140">
         <v>9.5</v>
       </c>
-      <c r="P140">
+      <c r="Q140">
         <f t="shared" si="4"/>
         <v>19469</v>
       </c>
-      <c r="Q140">
+      <c r="R140">
         <f t="shared" si="5"/>
         <v>379041961</v>
       </c>
     </row>
-    <row r="141" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N141">
+    <row r="141" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O141">
         <v>28</v>
       </c>
-      <c r="O141">
+      <c r="P141">
         <v>9.6</v>
       </c>
-      <c r="P141">
+      <c r="Q141">
         <f t="shared" si="4"/>
         <v>14635</v>
       </c>
-      <c r="Q141">
+      <c r="R141">
         <f t="shared" si="5"/>
         <v>214183225</v>
       </c>
     </row>
-    <row r="142" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N142">
+    <row r="142" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O142">
         <v>29</v>
       </c>
-      <c r="O142">
+      <c r="P142">
         <v>10.3</v>
       </c>
-      <c r="P142">
+      <c r="Q142">
         <f t="shared" si="4"/>
         <v>20891</v>
       </c>
-      <c r="Q142">
+      <c r="R142">
         <f t="shared" si="5"/>
         <v>436433881</v>
       </c>
     </row>
-    <row r="143" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N143">
+    <row r="143" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O143">
         <v>30</v>
       </c>
-      <c r="O143">
+      <c r="P143">
         <v>10.5</v>
       </c>
-      <c r="P143">
+      <c r="Q143">
         <f t="shared" si="4"/>
         <v>19372</v>
       </c>
-      <c r="Q143">
+      <c r="R143">
         <f t="shared" si="5"/>
         <v>375274384</v>
       </c>
     </row>
-    <row r="145" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O145" t="s">
-        <v>163</v>
-      </c>
+    <row r="145" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P145" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q145" t="s">
         <v>89</v>
       </c>
-      <c r="Q145" s="34">
-        <f>SUM(Q114:Q143)</f>
+      <c r="R145" s="34">
+        <f>SUM(R114:R143)</f>
         <v>5572548122</v>
       </c>
     </row>
-    <row r="162" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N162" t="s">
+    <row r="162" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O162" t="s">
         <v>27</v>
       </c>
-      <c r="O162">
+      <c r="P162">
         <f>(120000-40000)/(10-2)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="163" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N163" t="s">
+    <row r="163" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O163" t="s">
         <v>25</v>
       </c>
-      <c r="O163" t="s">
+      <c r="P163" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="164" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N164" t="s">
+    <row r="164" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O164" t="s">
         <v>92</v>
       </c>
-      <c r="O164" t="s">
+      <c r="P164" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N165" t="s">
+    <row r="165" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O165" t="s">
         <v>83</v>
       </c>
-      <c r="O165">
+      <c r="P165">
         <f>80000-(10000 * 6)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="166" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N166" t="s">
+    <row r="166" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O166" t="s">
         <v>25</v>
       </c>
-      <c r="O166" t="s">
+      <c r="P166" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="168" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N168" s="35" t="s">
+    <row r="168" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O168" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N170" t="s">
+    <row r="170" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O170" t="s">
         <v>66</v>
       </c>
-      <c r="O170" t="s">
+      <c r="P170" t="s">
         <v>82</v>
       </c>
-      <c r="P170" t="s">
+      <c r="Q170" t="s">
         <v>123</v>
       </c>
-      <c r="Q170" t="s">
+      <c r="R170" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N171">
+    <row r="171" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O171">
         <v>1</v>
       </c>
-      <c r="O171">
+      <c r="P171">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P171">
-        <f>P4-($O$162*O171+$O$165)</f>
+      <c r="Q171">
+        <f>Q4-($P$162*P171+$P$165)</f>
         <v>8343</v>
       </c>
-      <c r="Q171">
-        <f>P171^2</f>
+      <c r="R171">
+        <f>Q171^2</f>
         <v>69605649</v>
       </c>
     </row>
-    <row r="172" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N172">
+    <row r="172" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O172">
         <v>2</v>
       </c>
-      <c r="O172">
+      <c r="P172">
         <v>1.3</v>
       </c>
-      <c r="P172">
-        <f t="shared" ref="P172:P200" si="6">P5-($O$162*O172+$O$165)</f>
+      <c r="Q172">
+        <f t="shared" ref="Q172:Q200" si="6">Q5-($P$162*P172+$P$165)</f>
         <v>13205</v>
       </c>
-      <c r="Q172">
-        <f t="shared" ref="Q172:Q200" si="7">P172^2</f>
+      <c r="R172">
+        <f t="shared" ref="R172:R200" si="7">Q172^2</f>
         <v>174372025</v>
       </c>
     </row>
-    <row r="173" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N173">
+    <row r="173" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O173">
         <v>3</v>
       </c>
-      <c r="O173">
+      <c r="P173">
         <v>1.5</v>
       </c>
-      <c r="P173">
+      <c r="Q173">
         <f t="shared" si="6"/>
         <v>2731</v>
       </c>
-      <c r="Q173">
+      <c r="R173">
         <f t="shared" si="7"/>
         <v>7458361</v>
       </c>
     </row>
-    <row r="174" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N174">
+    <row r="174" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O174">
         <v>4</v>
       </c>
-      <c r="O174">
+      <c r="P174">
         <v>2</v>
       </c>
-      <c r="P174">
+      <c r="Q174">
         <f t="shared" si="6"/>
         <v>3525</v>
       </c>
-      <c r="Q174">
+      <c r="R174">
         <f t="shared" si="7"/>
         <v>12425625</v>
       </c>
     </row>
-    <row r="175" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N175">
+    <row r="175" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O175">
         <v>5</v>
       </c>
-      <c r="O175">
+      <c r="P175">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P175">
+      <c r="Q175">
         <f t="shared" si="6"/>
         <v>-2109</v>
       </c>
-      <c r="Q175">
+      <c r="R175">
         <f t="shared" si="7"/>
         <v>4447881</v>
       </c>
     </row>
-    <row r="176" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N176">
+    <row r="176" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O176">
         <v>6</v>
       </c>
-      <c r="O176">
+      <c r="P176">
         <v>2.9</v>
       </c>
-      <c r="P176">
+      <c r="Q176">
         <f t="shared" si="6"/>
         <v>7642</v>
       </c>
-      <c r="Q176">
+      <c r="R176">
         <f t="shared" si="7"/>
         <v>58400164</v>
       </c>
     </row>
-    <row r="177" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N177">
+    <row r="177" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O177">
         <v>7</v>
       </c>
-      <c r="O177">
+      <c r="P177">
         <v>3</v>
       </c>
-      <c r="P177">
+      <c r="Q177">
         <f t="shared" si="6"/>
         <v>10150</v>
       </c>
-      <c r="Q177">
+      <c r="R177">
         <f t="shared" si="7"/>
         <v>103022500</v>
       </c>
     </row>
-    <row r="178" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N178">
+    <row r="178" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O178">
         <v>8</v>
       </c>
-      <c r="O178">
+      <c r="P178">
         <v>3.2</v>
       </c>
-      <c r="P178">
+      <c r="Q178">
         <f t="shared" si="6"/>
         <v>2445</v>
       </c>
-      <c r="Q178">
+      <c r="R178">
         <f t="shared" si="7"/>
         <v>5978025</v>
       </c>
     </row>
-    <row r="179" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N179">
+    <row r="179" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O179">
         <v>9</v>
       </c>
-      <c r="O179">
+      <c r="P179">
         <v>3.2</v>
       </c>
-      <c r="P179">
+      <c r="Q179">
         <f t="shared" si="6"/>
         <v>12445</v>
       </c>
-      <c r="Q179">
+      <c r="R179">
         <f t="shared" si="7"/>
         <v>154878025</v>
       </c>
     </row>
-    <row r="180" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N180">
+    <row r="180" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O180">
         <v>10</v>
       </c>
-      <c r="O180">
+      <c r="P180">
         <v>3.7</v>
       </c>
-      <c r="P180">
+      <c r="Q180">
         <f t="shared" si="6"/>
         <v>189</v>
       </c>
-      <c r="Q180">
+      <c r="R180">
         <f t="shared" si="7"/>
         <v>35721</v>
       </c>
     </row>
-    <row r="181" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N181">
+    <row r="181" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O181">
         <v>11</v>
       </c>
-      <c r="O181">
+      <c r="P181">
         <v>3.9</v>
       </c>
-      <c r="P181">
+      <c r="Q181">
         <f t="shared" si="6"/>
         <v>4218</v>
       </c>
-      <c r="Q181">
+      <c r="R181">
         <f t="shared" si="7"/>
         <v>17791524</v>
       </c>
     </row>
-    <row r="182" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N182">
+    <row r="182" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O182">
         <v>12</v>
       </c>
-      <c r="O182">
+      <c r="P182">
         <v>4</v>
       </c>
-      <c r="P182">
+      <c r="Q182">
         <f t="shared" si="6"/>
         <v>-4206</v>
       </c>
-      <c r="Q182">
+      <c r="R182">
         <f t="shared" si="7"/>
         <v>17690436</v>
       </c>
     </row>
-    <row r="183" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N183">
+    <row r="183" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O183">
         <v>13</v>
       </c>
-      <c r="O183">
+      <c r="P183">
         <v>4</v>
       </c>
-      <c r="P183">
+      <c r="Q183">
         <f t="shared" si="6"/>
         <v>-3043</v>
       </c>
-      <c r="Q183">
+      <c r="R183">
         <f t="shared" si="7"/>
         <v>9259849</v>
       </c>
     </row>
-    <row r="184" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N184">
+    <row r="184" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O184">
         <v>14</v>
       </c>
-      <c r="O184">
+      <c r="P184">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P184">
+      <c r="Q184">
         <f t="shared" si="6"/>
         <v>-3919</v>
       </c>
-      <c r="Q184">
+      <c r="R184">
         <f t="shared" si="7"/>
         <v>15358561</v>
       </c>
     </row>
-    <row r="185" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N185">
+    <row r="185" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O185">
         <v>15</v>
       </c>
-      <c r="O185">
+      <c r="P185">
         <v>4.5</v>
       </c>
-      <c r="P185">
+      <c r="Q185">
         <f t="shared" si="6"/>
         <v>-3889</v>
       </c>
-      <c r="Q185">
+      <c r="R185">
         <f t="shared" si="7"/>
         <v>15124321</v>
       </c>
     </row>
-    <row r="186" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N186">
+    <row r="186" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O186">
         <v>16</v>
       </c>
-      <c r="O186">
+      <c r="P186">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P186">
+      <c r="Q186">
         <f t="shared" si="6"/>
         <v>-1062</v>
       </c>
-      <c r="Q186">
+      <c r="R186">
         <f t="shared" si="7"/>
         <v>1127844</v>
       </c>
     </row>
-    <row r="187" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N187">
+    <row r="187" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O187">
         <v>17</v>
       </c>
-      <c r="O187">
+      <c r="P187">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P187">
+      <c r="Q187">
         <f t="shared" si="6"/>
         <v>-4971</v>
       </c>
-      <c r="Q187">
+      <c r="R187">
         <f t="shared" si="7"/>
         <v>24710841</v>
       </c>
     </row>
-    <row r="188" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N188">
+    <row r="188" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O188">
         <v>18</v>
       </c>
-      <c r="O188">
+      <c r="P188">
         <v>5.3</v>
       </c>
-      <c r="P188">
+      <c r="Q188">
         <f t="shared" si="6"/>
         <v>10088</v>
       </c>
-      <c r="Q188">
+      <c r="R188">
         <f t="shared" si="7"/>
         <v>101767744</v>
       </c>
     </row>
-    <row r="189" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N189">
+    <row r="189" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O189">
         <v>19</v>
       </c>
-      <c r="O189">
+      <c r="P189">
         <v>5.9</v>
       </c>
-      <c r="P189">
+      <c r="Q189">
         <f t="shared" si="6"/>
         <v>2363</v>
       </c>
-      <c r="Q189">
+      <c r="R189">
         <f t="shared" si="7"/>
         <v>5583769</v>
       </c>
     </row>
-    <row r="190" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N190">
+    <row r="190" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O190">
         <v>20</v>
       </c>
-      <c r="O190">
+      <c r="P190">
         <v>6</v>
       </c>
-      <c r="P190">
+      <c r="Q190">
         <f t="shared" si="6"/>
         <v>13940</v>
       </c>
-      <c r="Q190">
+      <c r="R190">
         <f t="shared" si="7"/>
         <v>194323600</v>
       </c>
     </row>
-    <row r="191" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N191">
+    <row r="191" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O191">
         <v>21</v>
       </c>
-      <c r="O191">
+      <c r="P191">
         <v>6.8</v>
       </c>
-      <c r="P191">
+      <c r="Q191">
         <f t="shared" si="6"/>
         <v>3738</v>
       </c>
-      <c r="Q191">
+      <c r="R191">
         <f t="shared" si="7"/>
         <v>13972644</v>
       </c>
     </row>
-    <row r="192" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N192">
+    <row r="192" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O192">
         <v>22</v>
       </c>
-      <c r="O192">
+      <c r="P192">
         <v>7.1</v>
       </c>
-      <c r="P192">
+      <c r="Q192">
         <f t="shared" si="6"/>
         <v>7273</v>
       </c>
-      <c r="Q192">
+      <c r="R192">
         <f t="shared" si="7"/>
         <v>52896529</v>
       </c>
     </row>
-    <row r="193" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N193">
+    <row r="193" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O193">
         <v>23</v>
       </c>
-      <c r="O193">
+      <c r="P193">
         <v>7.9</v>
       </c>
-      <c r="P193">
+      <c r="Q193">
         <f t="shared" si="6"/>
         <v>2302</v>
       </c>
-      <c r="Q193">
+      <c r="R193">
         <f t="shared" si="7"/>
         <v>5299204</v>
       </c>
     </row>
-    <row r="194" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N194">
+    <row r="194" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O194">
         <v>24</v>
       </c>
-      <c r="O194">
+      <c r="P194">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P194">
+      <c r="Q194">
         <f t="shared" si="6"/>
         <v>11812</v>
       </c>
-      <c r="Q194">
+      <c r="R194">
         <f t="shared" si="7"/>
         <v>139523344</v>
       </c>
     </row>
-    <row r="195" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N195">
+    <row r="195" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O195">
         <v>25</v>
       </c>
-      <c r="O195">
+      <c r="P195">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P195">
+      <c r="Q195">
         <f t="shared" si="6"/>
         <v>2431</v>
       </c>
-      <c r="Q195">
+      <c r="R195">
         <f t="shared" si="7"/>
         <v>5909761</v>
       </c>
     </row>
-    <row r="196" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N196">
+    <row r="196" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O196">
         <v>26</v>
       </c>
-      <c r="O196">
+      <c r="P196">
         <v>9</v>
       </c>
-      <c r="P196">
+      <c r="Q196">
         <f t="shared" si="6"/>
         <v>-4418</v>
       </c>
-      <c r="Q196">
+      <c r="R196">
         <f t="shared" si="7"/>
         <v>19518724</v>
       </c>
     </row>
-    <row r="197" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N197">
+    <row r="197" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O197">
         <v>27</v>
       </c>
-      <c r="O197">
+      <c r="P197">
         <v>9.5</v>
       </c>
-      <c r="P197">
+      <c r="Q197">
         <f t="shared" si="6"/>
         <v>1969</v>
       </c>
-      <c r="Q197">
+      <c r="R197">
         <f t="shared" si="7"/>
         <v>3876961</v>
       </c>
     </row>
-    <row r="198" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N198">
+    <row r="198" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O198">
         <v>28</v>
       </c>
-      <c r="O198">
+      <c r="P198">
         <v>9.6</v>
       </c>
-      <c r="P198">
+      <c r="Q198">
         <f t="shared" si="6"/>
         <v>-3365</v>
       </c>
-      <c r="Q198">
+      <c r="R198">
         <f t="shared" si="7"/>
         <v>11323225</v>
       </c>
     </row>
-    <row r="199" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N199">
+    <row r="199" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O199">
         <v>29</v>
       </c>
-      <c r="O199">
+      <c r="P199">
         <v>10.3</v>
       </c>
-      <c r="P199">
+      <c r="Q199">
         <f t="shared" si="6"/>
         <v>-609</v>
       </c>
-      <c r="Q199">
+      <c r="R199">
         <f t="shared" si="7"/>
         <v>370881</v>
       </c>
     </row>
-    <row r="200" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N200">
+    <row r="200" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O200">
         <v>30</v>
       </c>
-      <c r="O200">
+      <c r="P200">
         <v>10.5</v>
       </c>
-      <c r="P200">
+      <c r="Q200">
         <f t="shared" si="6"/>
         <v>-3128</v>
       </c>
-      <c r="Q200">
+      <c r="R200">
         <f t="shared" si="7"/>
         <v>9784384</v>
       </c>
     </row>
-    <row r="202" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="O202" t="s">
-        <v>163</v>
-      </c>
+    <row r="202" spans="15:18" x14ac:dyDescent="0.35">
       <c r="P202" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q202" t="s">
         <v>89</v>
       </c>
-      <c r="Q202" s="34">
-        <f>SUM(Q171:Q200)</f>
+      <c r="R202" s="34">
+        <f>SUM(R171:R200)</f>
         <v>1255838122</v>
       </c>
     </row>
-    <row r="218" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N218" t="s">
+    <row r="218" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O218" t="s">
         <v>27</v>
       </c>
-      <c r="O218">
+      <c r="P218">
         <f>(140000-20000)/(10-2)</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="219" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N219" t="s">
+    <row r="219" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O219" t="s">
         <v>25</v>
       </c>
-      <c r="O219" t="s">
+      <c r="P219" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N220" t="s">
+    <row r="220" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O220" t="s">
         <v>101</v>
       </c>
-      <c r="O220" t="s">
+      <c r="P220" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N221" t="s">
+    <row r="221" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O221" t="s">
         <v>83</v>
       </c>
-      <c r="O221">
+      <c r="P221">
         <f>80000-(15000 * 6)</f>
         <v>-10000</v>
       </c>
     </row>
-    <row r="222" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N222" t="s">
+    <row r="222" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O222" t="s">
         <v>25</v>
       </c>
-      <c r="O222" t="s">
+      <c r="P222" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N224" s="36" t="s">
+    <row r="224" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O224" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="226" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N226" t="s">
+    <row r="226" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O226" t="s">
         <v>66</v>
       </c>
-      <c r="O226" t="s">
+      <c r="P226" t="s">
         <v>82</v>
       </c>
-      <c r="P226" t="s">
+      <c r="Q226" t="s">
         <v>87</v>
       </c>
-      <c r="Q226" t="s">
+      <c r="R226" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="227" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N227">
+    <row r="227" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O227">
         <v>1</v>
       </c>
-      <c r="O227">
+      <c r="P227">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P227">
-        <f>P4 - ($O$218*O227+$O$221)</f>
+      <c r="Q227">
+        <f>Q4 - ($P$218*P227+$P$221)</f>
         <v>32843</v>
       </c>
-      <c r="Q227">
-        <f>P227^2</f>
+      <c r="R227">
+        <f>Q227^2</f>
         <v>1078662649</v>
       </c>
     </row>
-    <row r="228" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N228">
+    <row r="228" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O228">
         <v>2</v>
       </c>
-      <c r="O228">
+      <c r="P228">
         <v>1.3</v>
       </c>
-      <c r="P228">
-        <f t="shared" ref="P228:P256" si="8">P5 - ($O$218*O228+$O$221)</f>
+      <c r="Q228">
+        <f t="shared" ref="Q228:Q256" si="8">Q5 - ($P$218*P228+$P$221)</f>
         <v>36705</v>
       </c>
-      <c r="Q228">
-        <f t="shared" ref="Q228:Q256" si="9">P228^2</f>
+      <c r="R228">
+        <f t="shared" ref="R228:R256" si="9">Q228^2</f>
         <v>1347257025</v>
       </c>
     </row>
-    <row r="229" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N229">
+    <row r="229" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O229">
         <v>3</v>
       </c>
-      <c r="O229">
+      <c r="P229">
         <v>1.5</v>
       </c>
-      <c r="P229">
+      <c r="Q229">
         <f t="shared" si="8"/>
         <v>25231</v>
       </c>
-      <c r="Q229">
+      <c r="R229">
         <f t="shared" si="9"/>
         <v>636603361</v>
       </c>
     </row>
-    <row r="230" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N230">
+    <row r="230" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O230">
         <v>4</v>
       </c>
-      <c r="O230">
+      <c r="P230">
         <v>2</v>
       </c>
-      <c r="P230">
+      <c r="Q230">
         <f t="shared" si="8"/>
         <v>23525</v>
       </c>
-      <c r="Q230">
+      <c r="R230">
         <f t="shared" si="9"/>
         <v>553425625</v>
       </c>
     </row>
-    <row r="231" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N231">
+    <row r="231" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O231">
         <v>5</v>
       </c>
-      <c r="O231">
+      <c r="P231">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P231">
+      <c r="Q231">
         <f t="shared" si="8"/>
         <v>16891</v>
       </c>
-      <c r="Q231">
+      <c r="R231">
         <f t="shared" si="9"/>
         <v>285305881</v>
       </c>
     </row>
-    <row r="232" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N232">
+    <row r="232" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O232">
         <v>6</v>
       </c>
-      <c r="O232">
+      <c r="P232">
         <v>2.9</v>
       </c>
-      <c r="P232">
+      <c r="Q232">
         <f t="shared" si="8"/>
         <v>23142</v>
       </c>
-      <c r="Q232">
+      <c r="R232">
         <f t="shared" si="9"/>
         <v>535552164</v>
       </c>
     </row>
-    <row r="233" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N233">
+    <row r="233" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O233">
         <v>7</v>
       </c>
-      <c r="O233">
+      <c r="P233">
         <v>3</v>
       </c>
-      <c r="P233">
+      <c r="Q233">
         <f t="shared" si="8"/>
         <v>25150</v>
       </c>
-      <c r="Q233">
+      <c r="R233">
         <f t="shared" si="9"/>
         <v>632522500</v>
       </c>
     </row>
-    <row r="234" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N234">
+    <row r="234" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O234">
         <v>8</v>
       </c>
-      <c r="O234">
+      <c r="P234">
         <v>3.2</v>
       </c>
-      <c r="P234">
+      <c r="Q234">
         <f t="shared" si="8"/>
         <v>16445</v>
       </c>
-      <c r="Q234">
+      <c r="R234">
         <f t="shared" si="9"/>
         <v>270438025</v>
       </c>
     </row>
-    <row r="235" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N235">
+    <row r="235" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O235">
         <v>9</v>
       </c>
-      <c r="O235">
+      <c r="P235">
         <v>3.2</v>
       </c>
-      <c r="P235">
+      <c r="Q235">
         <f t="shared" si="8"/>
         <v>26445</v>
       </c>
-      <c r="Q235">
+      <c r="R235">
         <f t="shared" si="9"/>
         <v>699338025</v>
       </c>
     </row>
-    <row r="236" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N236">
+    <row r="236" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O236">
         <v>10</v>
       </c>
-      <c r="O236">
+      <c r="P236">
         <v>3.7</v>
       </c>
-      <c r="P236">
+      <c r="Q236">
         <f t="shared" si="8"/>
         <v>11689</v>
       </c>
-      <c r="Q236">
+      <c r="R236">
         <f t="shared" si="9"/>
         <v>136632721</v>
       </c>
     </row>
-    <row r="237" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N237">
+    <row r="237" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O237">
         <v>11</v>
       </c>
-      <c r="O237">
+      <c r="P237">
         <v>3.9</v>
       </c>
-      <c r="P237">
+      <c r="Q237">
         <f t="shared" si="8"/>
         <v>14718</v>
       </c>
-      <c r="Q237">
+      <c r="R237">
         <f t="shared" si="9"/>
         <v>216619524</v>
       </c>
     </row>
-    <row r="238" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N238">
+    <row r="238" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O238">
         <v>12</v>
       </c>
-      <c r="O238">
+      <c r="P238">
         <v>4</v>
       </c>
-      <c r="P238">
+      <c r="Q238">
         <f t="shared" si="8"/>
         <v>5794</v>
       </c>
-      <c r="Q238">
+      <c r="R238">
         <f t="shared" si="9"/>
         <v>33570436</v>
       </c>
     </row>
-    <row r="239" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N239">
+    <row r="239" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O239">
         <v>13</v>
       </c>
-      <c r="O239">
+      <c r="P239">
         <v>4</v>
       </c>
-      <c r="P239">
+      <c r="Q239">
         <f t="shared" si="8"/>
         <v>6957</v>
       </c>
-      <c r="Q239">
+      <c r="R239">
         <f t="shared" si="9"/>
         <v>48399849</v>
       </c>
     </row>
-    <row r="240" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N240">
+    <row r="240" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O240">
         <v>14</v>
       </c>
-      <c r="O240">
+      <c r="P240">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P240">
+      <c r="Q240">
         <f t="shared" si="8"/>
         <v>5581.0000000000073</v>
       </c>
-      <c r="Q240">
+      <c r="R240">
         <f t="shared" si="9"/>
         <v>31147561.000000082</v>
       </c>
     </row>
-    <row r="241" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N241">
+    <row r="241" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O241">
         <v>15</v>
       </c>
-      <c r="O241">
+      <c r="P241">
         <v>4.5</v>
       </c>
-      <c r="P241">
+      <c r="Q241">
         <f t="shared" si="8"/>
         <v>3611</v>
       </c>
-      <c r="Q241">
+      <c r="R241">
         <f t="shared" si="9"/>
         <v>13039321</v>
       </c>
     </row>
-    <row r="242" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N242">
+    <row r="242" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O242">
         <v>16</v>
       </c>
-      <c r="O242">
+      <c r="P242">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P242">
+      <c r="Q242">
         <f t="shared" si="8"/>
         <v>4438</v>
       </c>
-      <c r="Q242">
+      <c r="R242">
         <f t="shared" si="9"/>
         <v>19695844</v>
       </c>
     </row>
-    <row r="243" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N243">
+    <row r="243" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O243">
         <v>17</v>
       </c>
-      <c r="O243">
+      <c r="P243">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P243">
+      <c r="Q243">
         <f t="shared" si="8"/>
         <v>-471</v>
       </c>
-      <c r="Q243">
+      <c r="R243">
         <f t="shared" si="9"/>
         <v>221841</v>
       </c>
     </row>
-    <row r="244" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N244">
+    <row r="244" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O244">
         <v>18</v>
       </c>
-      <c r="O244">
+      <c r="P244">
         <v>5.3</v>
       </c>
-      <c r="P244">
+      <c r="Q244">
         <f t="shared" si="8"/>
         <v>13588</v>
       </c>
-      <c r="Q244">
+      <c r="R244">
         <f t="shared" si="9"/>
         <v>184633744</v>
       </c>
     </row>
-    <row r="245" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N245">
+    <row r="245" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O245">
         <v>19</v>
       </c>
-      <c r="O245">
+      <c r="P245">
         <v>5.9</v>
       </c>
-      <c r="P245">
+      <c r="Q245">
         <f t="shared" si="8"/>
         <v>2863</v>
       </c>
-      <c r="Q245">
+      <c r="R245">
         <f t="shared" si="9"/>
         <v>8196769</v>
       </c>
     </row>
-    <row r="246" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N246">
+    <row r="246" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O246">
         <v>20</v>
       </c>
-      <c r="O246">
+      <c r="P246">
         <v>6</v>
       </c>
-      <c r="P246">
+      <c r="Q246">
         <f t="shared" si="8"/>
         <v>13940</v>
       </c>
-      <c r="Q246">
+      <c r="R246">
         <f t="shared" si="9"/>
         <v>194323600</v>
       </c>
     </row>
-    <row r="247" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N247">
+    <row r="247" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O247">
         <v>21</v>
       </c>
-      <c r="O247">
+      <c r="P247">
         <v>6.8</v>
       </c>
-      <c r="P247">
+      <c r="Q247">
         <f t="shared" si="8"/>
         <v>-262</v>
       </c>
-      <c r="Q247">
+      <c r="R247">
         <f t="shared" si="9"/>
         <v>68644</v>
       </c>
     </row>
-    <row r="248" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N248">
+    <row r="248" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O248">
         <v>22</v>
       </c>
-      <c r="O248">
+      <c r="P248">
         <v>7.1</v>
       </c>
-      <c r="P248">
+      <c r="Q248">
         <f t="shared" si="8"/>
         <v>1773</v>
       </c>
-      <c r="Q248">
+      <c r="R248">
         <f t="shared" si="9"/>
         <v>3143529</v>
       </c>
     </row>
-    <row r="249" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N249">
+    <row r="249" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O249">
         <v>23</v>
       </c>
-      <c r="O249">
+      <c r="P249">
         <v>7.9</v>
       </c>
-      <c r="P249">
+      <c r="Q249">
         <f t="shared" si="8"/>
         <v>-7198</v>
       </c>
-      <c r="Q249">
+      <c r="R249">
         <f t="shared" si="9"/>
         <v>51811204</v>
       </c>
     </row>
-    <row r="250" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N250">
+    <row r="250" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O250">
         <v>24</v>
       </c>
-      <c r="O250">
+      <c r="P250">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P250">
+      <c r="Q250">
         <f t="shared" si="8"/>
         <v>812.00000000001455</v>
       </c>
-      <c r="Q250">
+      <c r="R250">
         <f t="shared" si="9"/>
         <v>659344.00000002363</v>
       </c>
     </row>
-    <row r="251" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N251">
+    <row r="251" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O251">
         <v>25</v>
       </c>
-      <c r="O251">
+      <c r="P251">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P251">
+      <c r="Q251">
         <f t="shared" si="8"/>
         <v>-11068.999999999985</v>
       </c>
-      <c r="Q251">
+      <c r="R251">
         <f t="shared" si="9"/>
         <v>122522760.99999967</v>
       </c>
     </row>
-    <row r="252" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N252">
+    <row r="252" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O252">
         <v>26</v>
       </c>
-      <c r="O252">
+      <c r="P252">
         <v>9</v>
       </c>
-      <c r="P252">
+      <c r="Q252">
         <f t="shared" si="8"/>
         <v>-19418</v>
       </c>
-      <c r="Q252">
+      <c r="R252">
         <f t="shared" si="9"/>
         <v>377058724</v>
       </c>
     </row>
-    <row r="253" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N253">
+    <row r="253" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O253">
         <v>27</v>
       </c>
-      <c r="O253">
+      <c r="P253">
         <v>9.5</v>
       </c>
-      <c r="P253">
+      <c r="Q253">
         <f t="shared" si="8"/>
         <v>-15531</v>
       </c>
-      <c r="Q253">
+      <c r="R253">
         <f t="shared" si="9"/>
         <v>241211961</v>
       </c>
     </row>
-    <row r="254" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N254">
+    <row r="254" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O254">
         <v>28</v>
       </c>
-      <c r="O254">
+      <c r="P254">
         <v>9.6</v>
       </c>
-      <c r="P254">
+      <c r="Q254">
         <f t="shared" si="8"/>
         <v>-21365</v>
       </c>
-      <c r="Q254">
+      <c r="R254">
         <f t="shared" si="9"/>
         <v>456463225</v>
       </c>
     </row>
-    <row r="255" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N255">
+    <row r="255" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O255">
         <v>29</v>
       </c>
-      <c r="O255">
+      <c r="P255">
         <v>10.3</v>
       </c>
-      <c r="P255">
+      <c r="Q255">
         <f t="shared" si="8"/>
         <v>-22109</v>
       </c>
-      <c r="Q255">
+      <c r="R255">
         <f t="shared" si="9"/>
         <v>488807881</v>
       </c>
     </row>
-    <row r="256" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N256">
+    <row r="256" spans="15:18" x14ac:dyDescent="0.35">
+      <c r="O256">
         <v>30</v>
       </c>
-      <c r="O256">
+      <c r="P256">
         <v>10.5</v>
       </c>
-      <c r="P256">
+      <c r="Q256">
         <f t="shared" si="8"/>
         <v>-25628</v>
       </c>
-      <c r="Q256">
+      <c r="R256">
         <f t="shared" si="9"/>
         <v>656794384</v>
       </c>
     </row>
-    <row r="258" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O258" t="s">
-        <v>163</v>
-      </c>
+    <row r="258" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P258" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q258" t="s">
         <v>89</v>
       </c>
-      <c r="Q258" s="34">
-        <f>SUM(Q227:Q256)</f>
+      <c r="R258" s="34">
+        <f>SUM(R227:R256)</f>
         <v>9324128122</v>
       </c>
     </row>
-    <row r="277" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N277" t="s">
+    <row r="277" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O277" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N278" t="s">
+    <row r="278" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O278" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="279" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N279" t="s">
+    <row r="279" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O279" t="s">
         <v>25</v>
       </c>
-      <c r="O279" t="s">
+      <c r="P279" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N281" t="s">
+    <row r="281" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O281" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="283" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N283" t="s">
+    <row r="283" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O283" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="284" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N284" t="s">
+    <row r="284" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O284" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="286" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N286" t="s">
+    <row r="286" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O286" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="287" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N287" t="s">
+    <row r="287" spans="15:16" x14ac:dyDescent="0.35">
+      <c r="O287" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="291" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N291" s="20" t="s">
+    <row r="291" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O291" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="313" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O313" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="313" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N313" t="s">
+    <row r="314" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O314" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="314" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N314" t="s">
+    <row r="316" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O316" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="316" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N316" t="s">
+    <row r="317" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O317" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="317" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N317" t="s">
+    <row r="319" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O319" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="319" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N319" t="s">
+    <row r="320" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O320" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="325" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O325" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="345" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O345" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="320" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N320" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="325" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N325" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="345" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N345" t="s">
+    <row r="346" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O346" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="346" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N346" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="347" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N347" t="s">
-        <v>157</v>
+    <row r="347" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O347" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AN1:AU1"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="U1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20577,7 +20921,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
@@ -20592,12 +20936,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/machine_learning_concepts.xlsx
+++ b/machine_learning_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy Lauguico\Documents\01-learn-in-public\product\r-linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0910F42-9E43-43F5-BF0E-494B90BC66F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8E3A39-78E0-4B4A-9157-1E612919EE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{06EE85D0-79E0-4C85-BDA9-B6537CCBBDD5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{06EE85D0-79E0-4C85-BDA9-B6537CCBBDD5}"/>
   </bookViews>
   <sheets>
     <sheet name="What is Machine Learning" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
   <si>
     <t>Traditional Programming</t>
   </si>
@@ -850,6 +850,36 @@
   <si>
     <t>p-value is the number of extreme values divided by total no. of values</t>
   </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Training and Testing</t>
+  </si>
+  <si>
+    <t>Testing set</t>
+  </si>
+  <si>
+    <t>Training set</t>
+  </si>
+  <si>
+    <t>df_train</t>
+  </si>
+  <si>
+    <t>df_test</t>
+  </si>
+  <si>
+    <t>Machine Learning Pipeline</t>
+  </si>
+  <si>
+    <t>Training and Testing in a Dataset</t>
+  </si>
+  <si>
+    <t>Emma Ding</t>
+  </si>
+  <si>
+    <t>Mikko Rönkkö</t>
+  </si>
 </sst>
 </file>
 
@@ -858,7 +888,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,8 +970,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,6 +1047,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1197,6 +1239,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10469,6 +10519,56 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.07745</cdr:x>
+      <cdr:y>0.51557</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.22755</cdr:x>
+      <cdr:y>0.51776</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE3F9E7-8248-474D-EEEC-F34C449A7A27}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="270902" y="1094372"/>
+          <a:ext cx="525037" cy="4647"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.10372</cdr:x>
       <cdr:y>0.2665</cdr:y>
     </cdr:from>
@@ -10513,6 +10613,99 @@
     </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B72183-F8FF-68DC-6479-9B935072C783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="295275"/>
+          <a:ext cx="2924325" cy="1533604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57292</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0847694B-6421-83A1-29BE-05A584747407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="2400300"/>
+          <a:ext cx="2771917" cy="1368495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10582,6 +10775,231 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>164880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E8B7DE-4143-A72C-9D1A-C2E5C8AD2009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="333375"/>
+          <a:ext cx="3187480" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65922</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A9E42D-0460-0AA7-DF33-8AB204E416E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511800" y="368300"/>
+          <a:ext cx="3094872" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28728</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEA5D40-9AC5-3D12-9E28-34234E4893A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="2247900"/>
+          <a:ext cx="2981478" cy="1257365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219229</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD5D429-6EDF-88CF-9198-B3AFC217D053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="381000"/>
+          <a:ext cx="3000529" cy="1273241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>273202</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45A3B20-EFD9-B5D7-75B1-A8BDDA414F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="2266950"/>
+          <a:ext cx="2959252" cy="1228788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12245,7 +12663,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12295,7 +12713,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12577,7 +12995,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12627,7 +13045,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12677,7 +13095,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12717,56 +13135,6 @@
         </a:fillRef>
         <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
           <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.07745</cdr:x>
-      <cdr:y>0.51557</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.22755</cdr:x>
-      <cdr:y>0.51776</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="2" name="Straight Connector 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE3F9E7-8248-474D-EEEC-F34C449A7A27}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="270902" y="1094372"/>
-          <a:ext cx="525037" cy="4647"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
           <a:schemeClr val="tx1"/>
@@ -13881,8 +14249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ADF1C6-AEB3-457E-A95A-E94BFD7EF894}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16956,7 +17324,7 @@
   <dimension ref="M1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16987,15 +17355,1354 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783E1841-AAC1-4F16-92AD-4C66E49A3B2E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="4.7265625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="4.7265625" style="10" customWidth="1"/>
+    <col min="30" max="30" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.7265625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B1" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="I1" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="Q1" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="X1" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y4" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC4" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD4" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF4" s="52"/>
+      <c r="AG4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="Y5" s="52">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA5" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC5" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD5" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" s="54"/>
+      <c r="AG5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI5" s="11"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y6" s="52">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="52">
+        <v>4.7</v>
+      </c>
+      <c r="AA6" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="AB6" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="AC6" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD6" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y7" s="52">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>3.1</v>
+      </c>
+      <c r="AB7" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="AC7" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="AD7" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y8" s="52">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="52">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="AB8" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC8" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD8" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y9" s="52">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="52">
+        <v>5.4</v>
+      </c>
+      <c r="AA9" s="52">
+        <v>3.9</v>
+      </c>
+      <c r="AB9" s="52">
+        <v>1.7</v>
+      </c>
+      <c r="AC9" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="AD9" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y10" s="52">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA10" s="52">
+        <v>3.4</v>
+      </c>
+      <c r="AB10" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC10" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="AD10" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y11" s="54">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="54">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="54">
+        <v>3.4</v>
+      </c>
+      <c r="AB11" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="AC11" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="AD11" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y12" s="54">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="54">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA12" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="AB12" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="AC12" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="AD12" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y13" s="54">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA13" s="54">
+        <v>3.1</v>
+      </c>
+      <c r="AB13" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="AC13" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="AD13" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y14" s="52">
+        <v>51</v>
+      </c>
+      <c r="Z14" s="52">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="AB14" s="52">
+        <v>4.7</v>
+      </c>
+      <c r="AC14" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AD14" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y15" s="52">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="52">
+        <v>6.4</v>
+      </c>
+      <c r="AA15" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="AB15" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AC15" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="AD15" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y16" s="52">
+        <v>53</v>
+      </c>
+      <c r="Z16" s="52">
+        <v>6.9</v>
+      </c>
+      <c r="AA16" s="52">
+        <v>3.1</v>
+      </c>
+      <c r="AB16" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC16" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="AD16" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y17" s="52">
+        <v>54</v>
+      </c>
+      <c r="Z17" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="AA17" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB17" s="52">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="AD17" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y18" s="52">
+        <v>55</v>
+      </c>
+      <c r="Z18" s="52">
+        <v>6.5</v>
+      </c>
+      <c r="AA18" s="52">
+        <v>2.8</v>
+      </c>
+      <c r="AB18" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC18" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="AD18" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y19" s="52">
+        <v>56</v>
+      </c>
+      <c r="Z19" s="52">
+        <v>5.7</v>
+      </c>
+      <c r="AA19" s="52">
+        <v>2.8</v>
+      </c>
+      <c r="AB19" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AC19" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="AD19" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y20" s="52">
+        <v>57</v>
+      </c>
+      <c r="Z20" s="52">
+        <v>6.3</v>
+      </c>
+      <c r="AA20" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="AB20" s="52">
+        <v>4.7</v>
+      </c>
+      <c r="AC20" s="52">
+        <v>1.6</v>
+      </c>
+      <c r="AD20" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y21" s="54">
+        <v>58</v>
+      </c>
+      <c r="Z21" s="54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA21" s="54">
+        <v>2.4</v>
+      </c>
+      <c r="AB21" s="54">
+        <v>3.3</v>
+      </c>
+      <c r="AC21" s="54">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y22" s="54">
+        <v>59</v>
+      </c>
+      <c r="Z22" s="54">
+        <v>6.6</v>
+      </c>
+      <c r="AA22" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="AB22" s="54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC22" s="54">
+        <v>1.3</v>
+      </c>
+      <c r="AD22" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y23" s="54">
+        <v>60</v>
+      </c>
+      <c r="Z23" s="54">
+        <v>5.2</v>
+      </c>
+      <c r="AA23" s="54">
+        <v>2.7</v>
+      </c>
+      <c r="AB23" s="54">
+        <v>3.9</v>
+      </c>
+      <c r="AC23" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="AD23" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y24" s="52">
+        <v>101</v>
+      </c>
+      <c r="Z24" s="52">
+        <v>6.3</v>
+      </c>
+      <c r="AA24" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="AB24" s="52">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AD24" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y25" s="52">
+        <v>102</v>
+      </c>
+      <c r="Z25" s="52">
+        <v>5.8</v>
+      </c>
+      <c r="AA25" s="52">
+        <v>2.7</v>
+      </c>
+      <c r="AB25" s="52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC25" s="52">
+        <v>1.9</v>
+      </c>
+      <c r="AD25" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y26" s="52">
+        <v>103</v>
+      </c>
+      <c r="Z26" s="52">
+        <v>7.1</v>
+      </c>
+      <c r="AA26" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="52">
+        <v>5.9</v>
+      </c>
+      <c r="AC26" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="AD26" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y27" s="52">
+        <v>104</v>
+      </c>
+      <c r="Z27" s="52">
+        <v>6.3</v>
+      </c>
+      <c r="AA27" s="52">
+        <v>2.9</v>
+      </c>
+      <c r="AB27" s="52">
+        <v>5.6</v>
+      </c>
+      <c r="AC27" s="52">
+        <v>1.8</v>
+      </c>
+      <c r="AD27" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y28" s="52">
+        <v>105</v>
+      </c>
+      <c r="Z28" s="52">
+        <v>6.5</v>
+      </c>
+      <c r="AA28" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="52">
+        <v>5.8</v>
+      </c>
+      <c r="AC28" s="52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD28" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y29" s="52">
+        <v>106</v>
+      </c>
+      <c r="Z29" s="52">
+        <v>7.6</v>
+      </c>
+      <c r="AA29" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="AC29" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="AD29" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y30" s="52">
+        <v>107</v>
+      </c>
+      <c r="Z30" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA30" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AB30" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AC30" s="52">
+        <v>1.7</v>
+      </c>
+      <c r="AD30" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y31" s="54">
+        <v>108</v>
+      </c>
+      <c r="Z31" s="54">
+        <v>7.3</v>
+      </c>
+      <c r="AA31" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="AB31" s="54">
+        <v>6.3</v>
+      </c>
+      <c r="AC31" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="AD31" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y32" s="54">
+        <v>109</v>
+      </c>
+      <c r="Z32" s="54">
+        <v>6.7</v>
+      </c>
+      <c r="AA32" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="AB32" s="54">
+        <v>5.8</v>
+      </c>
+      <c r="AC32" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="AD32" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y33" s="54">
+        <v>110</v>
+      </c>
+      <c r="Z33" s="54">
+        <v>7.2</v>
+      </c>
+      <c r="AA33" s="54">
+        <v>3.6</v>
+      </c>
+      <c r="AB33" s="54">
+        <v>6.1</v>
+      </c>
+      <c r="AC33" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="AD33" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y37" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z37" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB37" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC37" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD37" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y38" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA38" s="52">
+        <v>3.5</v>
+      </c>
+      <c r="AB38" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC38" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD38" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y39" s="52">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA39" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC39" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD39" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y40" s="52">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="52">
+        <v>4.7</v>
+      </c>
+      <c r="AA40" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="AB40" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="AC40" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD40" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y41" s="52">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA41" s="53">
+        <v>3.1</v>
+      </c>
+      <c r="AB41" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="AC41" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="AD41" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y42" s="52">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="52">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="AB42" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC42" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="AD42" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y43" s="52">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="52">
+        <v>5.4</v>
+      </c>
+      <c r="AA43" s="52">
+        <v>3.9</v>
+      </c>
+      <c r="AB43" s="52">
+        <v>1.7</v>
+      </c>
+      <c r="AC43" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="AD43" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y44" s="52">
+        <v>7</v>
+      </c>
+      <c r="Z44" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA44" s="52">
+        <v>3.4</v>
+      </c>
+      <c r="AB44" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AC44" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="AD44" s="52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y45" s="52">
+        <v>51</v>
+      </c>
+      <c r="Z45" s="52">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="AB45" s="52">
+        <v>4.7</v>
+      </c>
+      <c r="AC45" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="AD45" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y46" s="52">
+        <v>52</v>
+      </c>
+      <c r="Z46" s="52">
+        <v>6.4</v>
+      </c>
+      <c r="AA46" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="AB46" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AC46" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="AD46" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y47" s="52">
+        <v>53</v>
+      </c>
+      <c r="Z47" s="52">
+        <v>6.9</v>
+      </c>
+      <c r="AA47" s="52">
+        <v>3.1</v>
+      </c>
+      <c r="AB47" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC47" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="AD47" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y48" s="52">
+        <v>54</v>
+      </c>
+      <c r="Z48" s="52">
+        <v>5.5</v>
+      </c>
+      <c r="AA48" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB48" s="52">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="AD48" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y49" s="52">
+        <v>55</v>
+      </c>
+      <c r="Z49" s="52">
+        <v>6.5</v>
+      </c>
+      <c r="AA49" s="52">
+        <v>2.8</v>
+      </c>
+      <c r="AB49" s="52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC49" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="AD49" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y50" s="52">
+        <v>56</v>
+      </c>
+      <c r="Z50" s="52">
+        <v>5.7</v>
+      </c>
+      <c r="AA50" s="52">
+        <v>2.8</v>
+      </c>
+      <c r="AB50" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AC50" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="AD50" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y51" s="52">
+        <v>57</v>
+      </c>
+      <c r="Z51" s="52">
+        <v>6.3</v>
+      </c>
+      <c r="AA51" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="AB51" s="52">
+        <v>4.7</v>
+      </c>
+      <c r="AC51" s="52">
+        <v>1.6</v>
+      </c>
+      <c r="AD51" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y52" s="52">
+        <v>101</v>
+      </c>
+      <c r="Z52" s="52">
+        <v>6.3</v>
+      </c>
+      <c r="AA52" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="AB52" s="52">
+        <v>6</v>
+      </c>
+      <c r="AC52" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AD52" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y53" s="52">
+        <v>102</v>
+      </c>
+      <c r="Z53" s="52">
+        <v>5.8</v>
+      </c>
+      <c r="AA53" s="52">
+        <v>2.7</v>
+      </c>
+      <c r="AB53" s="52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC53" s="52">
+        <v>1.9</v>
+      </c>
+      <c r="AD53" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y54" s="52">
+        <v>103</v>
+      </c>
+      <c r="Z54" s="52">
+        <v>7.1</v>
+      </c>
+      <c r="AA54" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="52">
+        <v>5.9</v>
+      </c>
+      <c r="AC54" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="AD54" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y55" s="52">
+        <v>104</v>
+      </c>
+      <c r="Z55" s="52">
+        <v>6.3</v>
+      </c>
+      <c r="AA55" s="52">
+        <v>2.9</v>
+      </c>
+      <c r="AB55" s="52">
+        <v>5.6</v>
+      </c>
+      <c r="AC55" s="52">
+        <v>1.8</v>
+      </c>
+      <c r="AD55" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y56" s="52">
+        <v>105</v>
+      </c>
+      <c r="Z56" s="52">
+        <v>6.5</v>
+      </c>
+      <c r="AA56" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB56" s="52">
+        <v>5.8</v>
+      </c>
+      <c r="AC56" s="52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD56" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y57" s="52">
+        <v>106</v>
+      </c>
+      <c r="Z57" s="52">
+        <v>7.6</v>
+      </c>
+      <c r="AA57" s="52">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="AC57" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="AD57" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y58" s="52">
+        <v>107</v>
+      </c>
+      <c r="Z58" s="52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA58" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="AB58" s="52">
+        <v>4.5</v>
+      </c>
+      <c r="AC58" s="52">
+        <v>1.7</v>
+      </c>
+      <c r="AD58" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y61" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z61" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA61" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB61" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC61" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD61" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y62" s="54">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="54">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="54">
+        <v>3.4</v>
+      </c>
+      <c r="AB62" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="AC62" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="AD62" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y63" s="54">
+        <v>9</v>
+      </c>
+      <c r="Z63" s="54">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA63" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="AB63" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="AC63" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="AD63" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y64" s="54">
+        <v>10</v>
+      </c>
+      <c r="Z64" s="54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA64" s="54">
+        <v>3.1</v>
+      </c>
+      <c r="AB64" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="AC64" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="AD64" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y65" s="54">
+        <v>58</v>
+      </c>
+      <c r="Z65" s="54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA65" s="54">
+        <v>2.4</v>
+      </c>
+      <c r="AB65" s="54">
+        <v>3.3</v>
+      </c>
+      <c r="AC65" s="54">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y66" s="54">
+        <v>59</v>
+      </c>
+      <c r="Z66" s="54">
+        <v>6.6</v>
+      </c>
+      <c r="AA66" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="AB66" s="54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC66" s="54">
+        <v>1.3</v>
+      </c>
+      <c r="AD66" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y67" s="54">
+        <v>60</v>
+      </c>
+      <c r="Z67" s="54">
+        <v>5.2</v>
+      </c>
+      <c r="AA67" s="54">
+        <v>2.7</v>
+      </c>
+      <c r="AB67" s="54">
+        <v>3.9</v>
+      </c>
+      <c r="AC67" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="AD67" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y68" s="54">
+        <v>108</v>
+      </c>
+      <c r="Z68" s="54">
+        <v>7.3</v>
+      </c>
+      <c r="AA68" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="AB68" s="54">
+        <v>6.3</v>
+      </c>
+      <c r="AC68" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="AD68" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y69" s="54">
+        <v>109</v>
+      </c>
+      <c r="Z69" s="54">
+        <v>6.7</v>
+      </c>
+      <c r="AA69" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="AB69" s="54">
+        <v>5.8</v>
+      </c>
+      <c r="AC69" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="AD69" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y70" s="54">
+        <v>110</v>
+      </c>
+      <c r="Z70" s="54">
+        <v>7.2</v>
+      </c>
+      <c r="AA70" s="54">
+        <v>3.6</v>
+      </c>
+      <c r="AB70" s="54">
+        <v>6.1</v>
+      </c>
+      <c r="AC70" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="AD70" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="X1:AH1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17003,8 +18710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C23027-444A-4A5F-989F-F5E5429A7DF6}">
   <dimension ref="A1:AV347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO103" sqref="AO103"/>
+    <sheetView topLeftCell="O73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T73" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20892,21 +22599,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304ADAA1-CFD4-455E-A077-35CAB59C164D}">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20944,6 +22652,16 @@
         <v>148</v>
       </c>
     </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/machine_learning_concepts.xlsx
+++ b/machine_learning_concepts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy Lauguico\Documents\01-learn-in-public\product\r-linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1543575-3D0A-4A75-8A07-05D96D625808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733131F5-4BD0-4643-A454-B2FBCA5BF8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{06EE85D0-79E0-4C85-BDA9-B6537CCBBDD5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{06EE85D0-79E0-4C85-BDA9-B6537CCBBDD5}"/>
   </bookViews>
   <sheets>
     <sheet name="What is Machine Learning" sheetId="1" r:id="rId1"/>
@@ -1278,17 +1278,12 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1303,10 +1298,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,7 +1315,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -13983,8 +13983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ABF26F-C6E8-4827-BF65-41F0D0CD8A51}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="H25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14015,29 +14015,29 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="J2" s="46" t="s">
+      <c r="H2" s="54"/>
+      <c r="J2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="K2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -14058,18 +14058,18 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="N3" s="48" t="s">
+      <c r="K3" s="55"/>
+      <c r="N3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -14113,18 +14113,18 @@
         <f>IF(G5 &gt;= $D$8, $E$8, IF(AND(G5 &lt; $D$8, G5 &gt;= $D$7), $E$7, IF(AND(G5 &lt; $D$7, G5 &gt;= $D$6), $E$6, IF(AND(G5 &lt; $D$6, G5 &gt;= $D$5), $E$5, IF(AND(G5 &lt; $D$5, G5 &gt;= $D$4), $E$4, "Upskill ka muna")))))</f>
         <v>40000</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="N5" s="51" t="s">
+      <c r="K5" s="56"/>
+      <c r="N5" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
       <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -14144,14 +14144,14 @@
         <f t="shared" ref="H6:H16" si="0">IF(G6 &gt;= $D$8, $E$8, IF(AND(G6 &lt; $D$8, G6 &gt;= $D$7), $E$7, IF(AND(G6 &lt; $D$7, G6 &gt;= $D$6), $E$6, IF(AND(G6 &lt; $D$6, G6 &gt;= $D$5), $E$5, IF(AND(G6 &lt; $D$5, G6 &gt;= $D$4), $E$4, "Upskill ka muna")))))</f>
         <v>40000</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
       <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -14171,18 +14171,18 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="N7" s="50" t="s">
+      <c r="K7" s="54"/>
+      <c r="N7" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -14208,14 +14208,14 @@
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
       <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -14232,14 +14232,14 @@
       <c r="K9" s="14">
         <v>40000</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="53"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
       <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -14256,14 +14256,14 @@
       <c r="K10" s="4">
         <v>60000</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="52"/>
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -14295,14 +14295,14 @@
       <c r="K12" s="4">
         <v>100000</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="G13" s="4">
@@ -14442,10 +14442,10 @@
       </c>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="54"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.35">
       <c r="N23" t="s">
@@ -14520,10 +14520,10 @@
       </c>
     </row>
     <row r="39" spans="10:15" x14ac:dyDescent="0.35">
-      <c r="N39" s="55" t="s">
+      <c r="N39" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="O39" s="55"/>
+      <c r="O39" s="48"/>
     </row>
     <row r="40" spans="10:15" x14ac:dyDescent="0.35">
       <c r="N40" s="18" t="s">
@@ -14550,7 +14550,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" ref="O41:O60" si="1">20000*(N42)+20000</f>
+        <f t="shared" ref="O42:O60" si="1">20000*(N42)+20000</f>
         <v>60000</v>
       </c>
     </row>
@@ -14729,25 +14729,18 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.35">
-      <c r="N63" s="54" t="s">
+      <c r="N63" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
     <mergeCell ref="M2:T2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
@@ -14759,6 +14752,13 @@
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14769,7 +14769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F11F37-6F43-47A3-ACEA-6A0ABD34840B}">
   <dimension ref="B1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="G31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -17923,44 +17923,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="I1" s="56" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="I1" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="Q1" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="X1" s="56" t="s">
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="X1" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="Y3" s="38" t="s">
@@ -19261,8 +19261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C23027-444A-4A5F-989F-F5E5429A7DF6}">
   <dimension ref="A1:AV347"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6"/>
+    <sheetView tabSelected="1" topLeftCell="AA25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR44" sqref="AR44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19284,58 +19284,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="N1" s="46" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="N1" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="U1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AC1" s="46" t="s">
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AC1" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AN1" s="57" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AN1" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="O2" t="s">
@@ -21187,7 +21187,7 @@
       <c r="X88" t="s">
         <v>107</v>
       </c>
-      <c r="Y88" s="58">
+      <c r="Y88" s="46">
         <f>R202</f>
         <v>1255838122</v>
       </c>
@@ -23153,7 +23153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395E558A-FB4C-4273-8454-8ABD44ECE433}">
   <dimension ref="I1:V658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -45134,7 +45134,7 @@
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
